--- a/VootKidsSprint2.xlsx
+++ b/VootKidsSprint2.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8355" windowWidth="20385"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
-    <sheet name="Watch_history" r:id="rId1" sheetId="1"/>
-    <sheet name="Master" r:id="rId2" sheetId="2"/>
+    <sheet name="Watch_history" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>TestType</t>
   </si>
@@ -53,7 +53,7 @@
     <t>When all valid parameters are passed</t>
   </si>
   <si>
-    <t>http://apiuat.vootkids.com/app/ks/v1/watchhistory.json</t>
+    <t>http://apiuat.vootkids.com/app/ks/v1/watchHistory.json</t>
   </si>
   <si>
     <t>7</t>
@@ -198,39 +198,6 @@
   </si>
   <si>
     <t>Watch_history</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"assets":{"title":"Last Viewed","items":[{"mId":"562367","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg","startDate":1516204151,"endDate":5233691533,"yearofRelease":null,"desc":"The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.","entryId":"0_cbm4k22s","episodeNo":255.1,"title":"The Danger Man","contentType":"Full Episode","language":["Tamil","Hindi","Telugu"],"IngestDate":1516204151,"telecastDate":0,"isDownable":"Yes","duration":595000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":595,"watchedDate":"1524812897","finishedWatching":true},{"mId":"562273","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/edebac5223174e7d9d7cf5d9e99be2c3_1280X720.jpg","startDate":1516190767,"endDate":5233691533,"yearofRelease":null,"desc":"Dr. Jhatka invents a camera which can transform anything into a crystalline form. When he shows his new invention to Motu, he grabs it from Dr. Jhatka. What will happen when Motu tries to take pictures of his friends and neighbours using the camera?","entryId":"0_3q1ajqai","episodeNo":253.2,"title":"The crystal camera","contentType":"Full Episode","language":["Tamil","Hindi","Telugu"],"IngestDate":1516190767,"telecastDate":0,"isDownable":"Yes","duration":572000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":572,"watchedDate":"1524826454","finishedWatching":true},{"mId":"476903","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg","startDate":1486801232,"endDate":5233691533,"yearofRelease":null,"desc":"Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?","entryId":"0_51wntvcw","episodeNo":250,"title":"The Photograph","contentType":"Full Episode","language":["English"],"IngestDate":1486801232,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524813606","finishedWatching":true},{"mId":"476878","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg","startDate":1486758928,"endDate":5233691533,"yearofRelease":null,"desc":"Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?","entryId":"0_9yw2qjyp","episodeNo":246,"title":"In the garden","contentType":"Full Episode","language":["English"],"IngestDate":1486758928,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524814199","finishedWatching":true},{"mId":"475818","mediaType":391,"genre":"Reality","imgURL":"http:\/\/kimg.voot.com\/kimg\/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg","startDate":1486330263,"endDate":5233691533,"yearofRelease":null,"desc":"Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.","entryId":"0_382ok3oj","episodeNo":2.6,"title":"Episode 2 - Part 6","contentType":"Full Episode","language":["Hindi"],"IngestDate":1486330263,"telecastDate":20170205,"isDownable":"No","duration":542000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"COH","watchedDuration":542,"watchedDate":"1524811382","finishedWatching":true},{"mId":"353522","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg","startDate":1449923058,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land","entryId":"0_gvdc8cxe","episodeNo":2,"title":"Pilot Training","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923058,"telecastDate":0,"isDownable":"Yes","duration":600000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":600,"watchedDate":"1524812597","finishedWatching":true},{"mId":"353520","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg","startDate":1449923057,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.","entryId":"0_efpdpa7z","episodeNo":1,"title":"Jon Banega Don","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923057,"telecastDate":0,"isDownable":"Yes","duration":670000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":670,"watchedDate":"1524812370","finishedWatching":true}]},"status":{"code":200,"message":"OK"}}</t>
-  </si>
-  <si>
-    <t>{"assets":{"title":"Last Viewed","items":[{"mId":"562367","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg","startDate":1516204151,"endDate":5233691533,"yearofRelease":null,"desc":"The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.","entryId":"0_cbm4k22s","episodeNo":255.1,"title":"The Danger Man","contentType":"Full Episode","language":["Tamil","Hindi","Telugu"],"IngestDate":1516204151,"telecastDate":0,"isDownable":"Yes","duration":595000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":595,"watchedDate":"1524812897","finishedWatching":true},{"mId":"476903","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg","startDate":1486801232,"endDate":5233691533,"yearofRelease":null,"desc":"Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?","entryId":"0_51wntvcw","episodeNo":250,"title":"The Photograph","contentType":"Full Episode","language":["English"],"IngestDate":1486801232,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524813606","finishedWatching":true},{"mId":"476878","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg","startDate":1486758928,"endDate":5233691533,"yearofRelease":null,"desc":"Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?","entryId":"0_9yw2qjyp","episodeNo":246,"title":"In the garden","contentType":"Full Episode","language":["English"],"IngestDate":1486758928,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524814199","finishedWatching":true},{"mId":"475818","mediaType":391,"genre":"Reality","imgURL":"http:\/\/kimg.voot.com\/kimg\/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg","startDate":1486330263,"endDate":5233691533,"yearofRelease":null,"desc":"Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.","entryId":"0_382ok3oj","episodeNo":2.6,"title":"Episode 2 - Part 6","contentType":"Full Episode","language":["Hindi"],"IngestDate":1486330263,"telecastDate":20170205,"isDownable":"No","duration":542000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"COH","watchedDuration":542,"watchedDate":"1524811382","finishedWatching":true},{"mId":"353522","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg","startDate":1449923058,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land","entryId":"0_gvdc8cxe","episodeNo":2,"title":"Pilot Training","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923058,"telecastDate":0,"isDownable":"Yes","duration":600000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":600,"watchedDate":"1524812597","finishedWatching":true},{"mId":"353520","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg","startDate":1449923057,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.","entryId":"0_efpdpa7z","episodeNo":1,"title":"Jon Banega Don","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923057,"telecastDate":0,"isDownable":"Yes","duration":670000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":670,"watchedDate":"1524812370","finishedWatching":true}]},"status":{"code":200,"message":"OK"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit value must be numeric"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit value must be greater than or equal 1"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit parameter is required"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"The off set must be at least 0."}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"offSet value must be numeric"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"offSet parameter is required"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":404,"message":"Data not found "}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"The ks field is required."}}</t>
   </si>
 </sst>
 </file>
@@ -238,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -272,7 +239,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +268,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,40 +343,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,59 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,187 +390,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,11 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,32 +655,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,251 +708,247 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="21" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="17" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="17" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="10"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -996,10 +962,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1163,21 +1129,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1194,7 +1160,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1247,704 +1213,590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.85714285714286" collapsed="true"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="52.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" customFormat="1" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" customFormat="1" spans="1:8">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C2"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C4"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C5"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C6"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C7"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C8"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C9"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C10"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C11"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C12"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C13"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C14"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C15"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C3"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C16"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C17"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C18"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C19"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C20"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C16" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C17" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C18" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C20" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1964,25 +1816,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/VootKidsSprint2.xlsx
+++ b/VootKidsSprint2.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8355" windowWidth="20385"/>
+    <workbookView windowWidth="19200" windowHeight="11850"/>
   </bookViews>
   <sheets>
-    <sheet name="Watch_history" r:id="rId1" sheetId="1"/>
-    <sheet name="Master" r:id="rId2" sheetId="2"/>
+    <sheet name="Watch_history" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>TestType</t>
   </si>
@@ -53,7 +53,7 @@
     <t>When all valid parameters are passed</t>
   </si>
   <si>
-    <t>http://apiuat.vootkids.com/app/ks/v1/watchhistory.json</t>
+    <t>http://apiuat.vootkids.com/app/ks/v1/watchHistory.json</t>
   </si>
   <si>
     <t>7</t>
@@ -167,9 +167,6 @@
     <t xml:space="preserve">Data not found </t>
   </si>
   <si>
-    <t>When special characters ks is passed</t>
-  </si>
-  <si>
     <t>When null characters ks is passed</t>
   </si>
   <si>
@@ -198,39 +195,6 @@
   </si>
   <si>
     <t>Watch_history</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"assets":{"title":"Last Viewed","items":[{"mId":"562367","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg","startDate":1516204151,"endDate":5233691533,"yearofRelease":null,"desc":"The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.","entryId":"0_cbm4k22s","episodeNo":255.1,"title":"The Danger Man","contentType":"Full Episode","language":["Tamil","Hindi","Telugu"],"IngestDate":1516204151,"telecastDate":0,"isDownable":"Yes","duration":595000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":595,"watchedDate":"1524812897","finishedWatching":true},{"mId":"562273","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/edebac5223174e7d9d7cf5d9e99be2c3_1280X720.jpg","startDate":1516190767,"endDate":5233691533,"yearofRelease":null,"desc":"Dr. Jhatka invents a camera which can transform anything into a crystalline form. When he shows his new invention to Motu, he grabs it from Dr. Jhatka. What will happen when Motu tries to take pictures of his friends and neighbours using the camera?","entryId":"0_3q1ajqai","episodeNo":253.2,"title":"The crystal camera","contentType":"Full Episode","language":["Tamil","Hindi","Telugu"],"IngestDate":1516190767,"telecastDate":0,"isDownable":"Yes","duration":572000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":572,"watchedDate":"1524826454","finishedWatching":true},{"mId":"476903","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg","startDate":1486801232,"endDate":5233691533,"yearofRelease":null,"desc":"Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?","entryId":"0_51wntvcw","episodeNo":250,"title":"The Photograph","contentType":"Full Episode","language":["English"],"IngestDate":1486801232,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524813606","finishedWatching":true},{"mId":"476878","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg","startDate":1486758928,"endDate":5233691533,"yearofRelease":null,"desc":"Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?","entryId":"0_9yw2qjyp","episodeNo":246,"title":"In the garden","contentType":"Full Episode","language":["English"],"IngestDate":1486758928,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524814199","finishedWatching":true},{"mId":"475818","mediaType":391,"genre":"Reality","imgURL":"http:\/\/kimg.voot.com\/kimg\/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg","startDate":1486330263,"endDate":5233691533,"yearofRelease":null,"desc":"Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.","entryId":"0_382ok3oj","episodeNo":2.6,"title":"Episode 2 - Part 6","contentType":"Full Episode","language":["Hindi"],"IngestDate":1486330263,"telecastDate":20170205,"isDownable":"No","duration":542000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"COH","watchedDuration":542,"watchedDate":"1524811382","finishedWatching":true},{"mId":"353522","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg","startDate":1449923058,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land","entryId":"0_gvdc8cxe","episodeNo":2,"title":"Pilot Training","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923058,"telecastDate":0,"isDownable":"Yes","duration":600000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":600,"watchedDate":"1524812597","finishedWatching":true},{"mId":"353520","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg","startDate":1449923057,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.","entryId":"0_efpdpa7z","episodeNo":1,"title":"Jon Banega Don","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923057,"telecastDate":0,"isDownable":"Yes","duration":670000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":670,"watchedDate":"1524812370","finishedWatching":true}]},"status":{"code":200,"message":"OK"}}</t>
-  </si>
-  <si>
-    <t>{"assets":{"title":"Last Viewed","items":[{"mId":"562367","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg","startDate":1516204151,"endDate":5233691533,"yearofRelease":null,"desc":"The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.","entryId":"0_cbm4k22s","episodeNo":255.1,"title":"The Danger Man","contentType":"Full Episode","language":["Tamil","Hindi","Telugu"],"IngestDate":1516204151,"telecastDate":0,"isDownable":"Yes","duration":595000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":595,"watchedDate":"1524812897","finishedWatching":true},{"mId":"476903","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg","startDate":1486801232,"endDate":5233691533,"yearofRelease":null,"desc":"Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?","entryId":"0_51wntvcw","episodeNo":250,"title":"The Photograph","contentType":"Full Episode","language":["English"],"IngestDate":1486801232,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524813606","finishedWatching":true},{"mId":"476878","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg","startDate":1486758928,"endDate":5233691533,"yearofRelease":null,"desc":"Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?","entryId":"0_9yw2qjyp","episodeNo":246,"title":"In the garden","contentType":"Full Episode","language":["English"],"IngestDate":1486758928,"telecastDate":0,"isDownable":"Yes","duration":659000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"END","watchedDuration":659,"watchedDate":"1524814199","finishedWatching":true},{"mId":"475818","mediaType":391,"genre":"Reality","imgURL":"http:\/\/kimg.voot.com\/kimg\/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg","startDate":1486330263,"endDate":5233691533,"yearofRelease":null,"desc":"Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.","entryId":"0_382ok3oj","episodeNo":2.6,"title":"Episode 2 - Part 6","contentType":"Full Episode","language":["Hindi"],"IngestDate":1486330263,"telecastDate":20170205,"isDownable":"No","duration":542000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"COH","watchedDuration":542,"watchedDate":"1524811382","finishedWatching":true},{"mId":"353522","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg","startDate":1449923058,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land","entryId":"0_gvdc8cxe","episodeNo":2,"title":"Pilot Training","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923058,"telecastDate":0,"isDownable":"Yes","duration":600000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":600,"watchedDate":"1524812597","finishedWatching":true},{"mId":"353520","mediaType":391,"genre":"Kids","imgURL":"http:\/\/kimg.voot.com\/kimg\/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg","startDate":1449923057,"endDate":5233691533,"yearofRelease":"2012","desc":"Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.","entryId":"0_efpdpa7z","episodeNo":1,"title":"Jon Banega Don","contentType":"Full Episode","language":["Tamil","Hindi","Bengali","Kannada","Telugu"],"IngestDate":1449923057,"telecastDate":0,"isDownable":"Yes","duration":670000,"nextCue":null,"isThreeSixty":0,"totalItems":null,"sbu":"NICK","watchedDuration":670,"watchedDate":"1524812370","finishedWatching":true}]},"status":{"code":200,"message":"OK"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit value must be numeric"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit value must be greater than or equal 1"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit parameter is required"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"The off set must be at least 0."}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"offSet value must be numeric"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"offSet parameter is required"}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":404,"message":"Data not found "}}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"The ks field is required."}}</t>
   </si>
 </sst>
 </file>
@@ -238,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -265,6 +229,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -279,14 +251,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,59 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -370,15 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,16 +363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,55 +387,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,127 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,15 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -678,6 +633,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,260 +713,240 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="21" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="17" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="17" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="10"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -996,10 +960,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1163,21 +1127,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1194,7 +1158,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1247,48 +1211,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.85714285714286" collapsed="true"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="52.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -1299,13 +1263,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -1314,30 +1278,24 @@
       <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -1346,30 +1304,24 @@
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1378,30 +1330,24 @@
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1410,30 +1356,24 @@
       <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1442,126 +1382,102 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1570,30 +1486,24 @@
       <c r="E10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1602,30 +1512,24 @@
       <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1634,126 +1538,102 @@
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" customFormat="1" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1762,30 +1642,24 @@
       <c r="E16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -1794,30 +1668,24 @@
       <c r="E17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1826,30 +1694,24 @@
       <c r="E18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="H18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:8">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -1858,110 +1720,71 @@
       <c r="E19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
+      <c r="H19" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C2"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C4"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C5"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C6"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C7"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C8"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C9"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C10"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C11"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C12"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C13"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C14"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C15"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C3"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C16"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C17"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C18"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C19"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json" r:id="rId1" ref="C20"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C16" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C17" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C18" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1969,20 +1792,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/VootKidsSprint2.xlsx
+++ b/VootKidsSprint2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11850"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Watch_history" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>TestType</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data not found </t>
+  </si>
+  <si>
+    <t>When special characters ks is passed</t>
   </si>
   <si>
     <t>When null characters ks is passed</t>
@@ -229,15 +232,36 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,20 +271,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +305,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -304,9 +322,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,11 +359,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,50 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -387,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +625,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,11 +666,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,36 +678,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,161 +699,178 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,12 +887,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1213,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1255,10 +1257,10 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1272,10 +1274,10 @@
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -1295,13 +1297,13 @@
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1321,13 +1323,13 @@
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1347,13 +1349,13 @@
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1373,13 +1375,13 @@
       <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1399,13 +1401,13 @@
       <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1425,13 +1427,13 @@
       <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1451,13 +1453,13 @@
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1477,13 +1479,13 @@
       <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1503,13 +1505,13 @@
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1529,13 +1531,13 @@
       <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1555,10 +1557,10 @@
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1581,10 +1583,10 @@
       <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1607,10 +1609,10 @@
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1633,13 +1635,13 @@
       <c r="B16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1659,17 +1661,17 @@
       <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>16</v>
@@ -1685,23 +1687,23 @@
       <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>32</v>
+      <c r="F18" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:8">
@@ -1709,25 +1711,51 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1750,6 +1778,7 @@
     <hyperlink ref="C17" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
     <hyperlink ref="C18" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
     <hyperlink ref="C19" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C20" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1762,7 +1791,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1772,36 +1801,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/VootKidsSprint2.xlsx
+++ b/VootKidsSprint2.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355"/>
+    <workbookView activeTab="4" windowHeight="11850" windowWidth="19200"/>
   </bookViews>
   <sheets>
-    <sheet name="Watch_history" sheetId="1" r:id="rId1"/>
-    <sheet name="Master" sheetId="2" r:id="rId2"/>
+    <sheet name="Watch_history" r:id="rId1" sheetId="1"/>
+    <sheet name="Master" r:id="rId2" sheetId="2"/>
+    <sheet name="Channelkids" r:id="rId3" sheetId="4"/>
+    <sheet name="Watch" r:id="rId4" sheetId="5"/>
+    <sheet name="kidscharacters" r:id="rId5" sheetId="6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="7">
   <si>
     <t>TestType</t>
   </si>
@@ -62,7 +65,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>djJ8MjI1fPnDZ4IBbAOrO4a1WAnvZas5E_W_XjzGK487whKmPe4qqxOqa50_9jLxDwJT7UYeEc6W_2BU7PFuJjiYQOlBFF_8kcC8b0Pa7PAQAAUm5ZXbtITTn95sShLNBRIWaTTfDYiJITVeIHWSF-zQiNjOR00=</t>
+    <t>djJ8MjI1fOekVDLEKkZu49Y0DbwEu3pLJndJ_VOSC-jo0xvpimh-MYFD50i_HHACF__8EWtckpMcVCzL8vWSkfW_JRZFoulhiCdOvCRhtqAX1dnmJ6L8duOAZ0kCHMjc3RlbAh2uottGqNFgCVZPYptHj_IP7qo=</t>
   </si>
   <si>
     <t>status.message</t>
@@ -71,12 +74,453 @@
     <t>OK</t>
   </si>
   <si>
+    <t>{
+    "assets": {
+        "totalItems": 8,
+        "items": [
+            {
+                "mId": "562367",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg",
+                "startDate": 1516204151,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_cbm4k22s",
+                "episodeNo": 255.1,
+                "title": "The Danger Man",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Tamil",
+                    "Telugu"
+                ],
+                "IngestDate": 1516204151,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 595000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 595,
+                "watchedDate": 1524812897,
+                "finishedWatching": true
+            },
+            {
+                "mId": "562273",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/edebac5223174e7d9d7cf5d9e99be2c3_1280X720.jpg",
+                "startDate": 1516190767,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Dr. Jhatka invents a camera which can transform anything into a crystalline form. When he shows his new invention to Motu, he grabs it from Dr. Jhatka. What will happen when Motu tries to take pictures of his friends and neighbours using the camera?",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_3q1ajqai",
+                "episodeNo": 253.2,
+                "title": "The crystal camera",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Tamil",
+                    "Telugu"
+                ],
+                "IngestDate": 1516190767,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 572000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 572,
+                "watchedDate": 1524826454,
+                "finishedWatching": true
+            },
+            {
+                "mId": "476903",
+                "mediaType": 391,
+                "season": 2,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg",
+                "startDate": 1486801232,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?",
+                "refSeriesTitle": "Mr Bean: The Animated Series",
+                "entryId": "0_51wntvcw",
+                "episodeNo": 250,
+                "title": "The Photograph",
+                "contentType": "Full Episode",
+                "language": [
+                    "English"
+                ],
+                "IngestDate": 1486801232,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 659000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "END",
+                "watchedDuration": 659,
+                "watchedDate": 1524813606,
+                "finishedWatching": true
+            },
+            {
+                "mId": "476878",
+                "mediaType": 391,
+                "season": 2,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg",
+                "startDate": 1486758928,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?",
+                "refSeriesTitle": "Mr Bean: The Animated Series",
+                "entryId": "0_9yw2qjyp",
+                "episodeNo": 246,
+                "title": "In the garden",
+                "contentType": "Full Episode",
+                "language": [
+                    "English"
+                ],
+                "IngestDate": 1486758928,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 659000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "END",
+                "watchedDuration": 659,
+                "watchedDate": 1524814199,
+                "finishedWatching": true
+            },
+            {
+                "mId": "475818",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Reality",
+                "imgURL": "http://kimg.voot.com/kimg/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg",
+                "startDate": 1486330263,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.",
+                "refSeriesTitle": "Rising Star",
+                "entryId": "0_382ok3oj",
+                "episodeNo": 2.6,
+                "title": "Episode 2 - Part 6",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi"
+                ],
+                "IngestDate": 1486330263,
+                "telecastDate": 20170205,
+                "isDownable": "No",
+                "duration": 542000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "COH",
+                "watchedDuration": 542,
+                "watchedDate": 1524811382,
+                "finishedWatching": true
+            },
+            {
+                "mId": "353522",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg",
+                "startDate": 1449923058,
+                "endDate": 5233691533,
+                "yearofRelease": "2012",
+                "desc": "Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_gvdc8cxe",
+                "episodeNo": 2,
+                "title": "Pilot Training",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Bengali",
+                    "Tamil",
+                    "Kannada",
+                    "Telugu"
+                ],
+                "IngestDate": 1449923058,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 600000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 600,
+                "watchedDate": 1524812597,
+                "finishedWatching": true
+            },
+            {
+                "mId": "353520",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg",
+                "startDate": 1449923057,
+                "endDate": 5233691533,
+                "yearofRelease": "2012",
+                "desc": "Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_efpdpa7z",
+                "episodeNo": 1,
+                "title": "Jon Banega Don",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Bengali",
+                    "Tamil",
+                    "Kannada",
+                    "Telugu"
+                ],
+                "IngestDate": 1449923057,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 670000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 670,
+                "watchedDate": 1524812370,
+                "finishedWatching": true
+            }
+        ]
+    },
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>When all valid parameters are passed with different limit and offset</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>{
+    "assets": {
+        "totalItems": 8,
+        "items": [
+            {
+                "mId": "562367",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg",
+                "startDate": 1516204151,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_cbm4k22s",
+                "episodeNo": 255.1,
+                "title": "The Danger Man",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Tamil",
+                    "Telugu"
+                ],
+                "IngestDate": 1516204151,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 595000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 595,
+                "watchedDate": 1524812897,
+                "finishedWatching": true
+            },
+            {
+                "mId": "476903",
+                "mediaType": 391,
+                "season": 2,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg",
+                "startDate": 1486801232,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?",
+                "refSeriesTitle": "Mr Bean: The Animated Series",
+                "entryId": "0_51wntvcw",
+                "episodeNo": 250,
+                "title": "The Photograph",
+                "contentType": "Full Episode",
+                "language": [
+                    "English"
+                ],
+                "IngestDate": 1486801232,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 659000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "END",
+                "watchedDuration": 659,
+                "watchedDate": 1524813606,
+                "finishedWatching": true
+            },
+            {
+                "mId": "476878",
+                "mediaType": 391,
+                "season": 2,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg",
+                "startDate": 1486758928,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?",
+                "refSeriesTitle": "Mr Bean: The Animated Series",
+                "entryId": "0_9yw2qjyp",
+                "episodeNo": 246,
+                "title": "In the garden",
+                "contentType": "Full Episode",
+                "language": [
+                    "English"
+                ],
+                "IngestDate": 1486758928,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 659000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "END",
+                "watchedDuration": 659,
+                "watchedDate": 1524814199,
+                "finishedWatching": true
+            },
+            {
+                "mId": "475818",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Reality",
+                "imgURL": "http://kimg.voot.com/kimg/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg",
+                "startDate": 1486330263,
+                "endDate": 5233691533,
+                "yearofRelease": null,
+                "desc": "Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.",
+                "refSeriesTitle": "Rising Star",
+                "entryId": "0_382ok3oj",
+                "episodeNo": 2.6,
+                "title": "Episode 2 - Part 6",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi"
+                ],
+                "IngestDate": 1486330263,
+                "telecastDate": 20170205,
+                "isDownable": "No",
+                "duration": 542000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "COH",
+                "watchedDuration": 542,
+                "watchedDate": 1524811382,
+                "finishedWatching": true
+            },
+            {
+                "mId": "353522",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg",
+                "startDate": 1449923058,
+                "endDate": 5233691533,
+                "yearofRelease": "2012",
+                "desc": "Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_gvdc8cxe",
+                "episodeNo": 2,
+                "title": "Pilot Training",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Bengali",
+                    "Tamil",
+                    "Kannada",
+                    "Telugu"
+                ],
+                "IngestDate": 1449923058,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 600000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 600,
+                "watchedDate": 1524812597,
+                "finishedWatching": true
+            },
+            {
+                "mId": "353520",
+                "mediaType": 391,
+                "season": 1,
+                "genre": "Kids",
+                "imgURL": "http://kimg.voot.com/kimg/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg",
+                "startDate": 1449923057,
+                "endDate": 5233691533,
+                "yearofRelease": "2012",
+                "desc": "Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.",
+                "refSeriesTitle": "Motu Patlu",
+                "entryId": "0_efpdpa7z",
+                "episodeNo": 1,
+                "title": "Jon Banega Don",
+                "contentType": "Full Episode",
+                "language": [
+                    "Hindi",
+                    "Bengali",
+                    "Tamil",
+                    "Kannada",
+                    "Telugu"
+                ],
+                "IngestDate": 1449923057,
+                "telecastDate": 0,
+                "isDownable": "Yes",
+                "duration": 670000,
+                "nextCue": null,
+                "isThreeSixty": 0,
+                "totalItems": null,
+                "sbu": "NICK",
+                "watchedDuration": 670,
+                "watchedDate": 1524812370,
+                "finishedWatching": true
+            }
+        ]
+    },
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
     <t>Negative</t>
   </si>
   <si>
@@ -89,6 +533,15 @@
     <t>limit value must be numeric</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "limit value must be numeric"
+    }
+}</t>
+  </si>
+  <si>
     <t>when invalid  limit is passed</t>
   </si>
   <si>
@@ -98,6 +551,15 @@
     <t>limit value must be greater than or equal 1</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "limit value must be greater than or equal 1"
+    }
+}</t>
+  </si>
+  <si>
     <t>When Special Characters are passed in limit</t>
   </si>
   <si>
@@ -119,19 +581,40 @@
     <t>limit parameter is required</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "limit parameter is required"
+    }
+}</t>
+  </si>
+  <si>
     <t>When limit is not passed</t>
   </si>
   <si>
     <t>NOTPASS</t>
   </si>
   <si>
+    <t>{"assets":null,"status":{"code":400,"message":"limit parameter is required"}}</t>
+  </si>
+  <si>
     <t>When invalid  is offset is passed</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>The off set must be at least 0.</t>
+    <t>offSet value must be greater than or equal 0</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet value must be greater than or equal 0"
+    }
+}</t>
   </si>
   <si>
     <t>When Alphanumeric  is offset is passed</t>
@@ -143,6 +626,15 @@
     <t>offSet value must be numeric</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet value must be numeric"
+    }
+}</t>
+  </si>
+  <si>
     <t>When SpecialCharacters  is passed in offset</t>
   </si>
   <si>
@@ -155,9 +647,21 @@
     <t>offSet parameter is required</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet parameter is required"
+    }
+}</t>
+  </si>
+  <si>
     <t>When offset is not passed</t>
   </si>
   <si>
+    <t>{"assets":null,"status":{"code":400,"message":"offSet parameter is required"}}</t>
+  </si>
+  <si>
     <t>When invalid ks is passed</t>
   </si>
   <si>
@@ -167,6 +671,15 @@
     <t xml:space="preserve">Data not found </t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 404,
+        "message": "Data not found "
+    }
+}</t>
+  </si>
+  <si>
     <t>When special characters ks is passed</t>
   </si>
   <si>
@@ -179,9 +692,21 @@
     <t>The ks field is required.</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The ks field is required."
+    }
+}</t>
+  </si>
+  <si>
     <t>When ks is not passed</t>
   </si>
   <si>
+    <t>{"assets":null,"status":{"code":400,"message":"The ks field is required."}}</t>
+  </si>
+  <si>
     <t>Sl no.</t>
   </si>
   <si>
@@ -191,13 +716,912 @@
     <t>No. TC</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>Watch_history</t>
+  </si>
+  <si>
+    <t>Channelkids</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Kids Characters</t>
+  </si>
+  <si>
+    <t>http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json</t>
+  </si>
+  <si>
+    <t>{"assets":{"title":"Channels","totalItems":15,"items":[{"channelName":"Nickelodeon 1","channelId":3,"sbu":"NICK1","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Entertainment one","channelId":12,"sbu":"ETO","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Green Gold","channelId":13,"sbu":"GRG","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hit Entertainment","channelId":16,"sbu":"HITENT","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hi5","channelId":15,"sbu":"HI5","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Millimages","channelId":18,"sbu":"MIL","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Karadi Tales","channelId":17,"sbu":"KAR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"}]},"status":{"code":200,"message":"OK"}}</t>
+  </si>
+  <si>
+    <t>When all valid parameters with different offset and limit values</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>{"assets":{"title":"Channels","totalItems":"15","items":[{"channelName":"Nickelodeon 1","channelId":3,"sbu":"NICK1","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Entertainment one","channelId":12,"sbu":"ETO","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Green Gold","channelId":13,"sbu":"GRG","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hit Entertainment","channelId":16,"sbu":"HITENT","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hi5","channelId":15,"sbu":"HI5","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Millimages","channelId":18,"sbu":"MIL","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Karadi Tales","channelId":17,"sbu":"KAR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Yoboho","channelId":28,"sbu":"YOB","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849755_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"}]},"status":{"code":200,"message":"OK"}}</t>
+  </si>
+  <si>
+    <t>When invalid limit is passed</t>
+  </si>
+  <si>
+    <t>The limit must be at least 1.</t>
+  </si>
+  <si>
+    <t>{"assets":null,"status":{"code":400,"message":"The limit must be at least 1."}}</t>
+  </si>
+  <si>
+    <t>When alphanumeric chaaracters are passed in limit</t>
+  </si>
+  <si>
+    <t>limit parameter must be numeric</t>
+  </si>
+  <si>
+    <t>{"assets":null,"status":{"code":400,"message":"limit parameter must be numeric"}}</t>
+  </si>
+  <si>
+    <t>When empty limit is passed</t>
+  </si>
+  <si>
+    <t>The limit field is required.</t>
+  </si>
+  <si>
+    <t>{"assets":null,"status":{"code":400,"message":"The limit field is required."}}</t>
+  </si>
+  <si>
+    <t>{"assets":{"title":"Channels","totalItems":"15","items":[{"channelName":"Nickelodeon 1","channelId":3,"sbu":"NICK1","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Entertainment one","channelId":12,"sbu":"ETO","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Green Gold","channelId":13,"sbu":"GRG","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hit Entertainment","channelId":16,"sbu":"HITENT","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hi5","channelId":15,"sbu":"HI5","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Millimages","channelId":18,"sbu":"MIL","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Karadi Tales","channelId":17,"sbu":"KAR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Yoboho","channelId":28,"sbu":"YOB","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849755_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Strika Entertainment","channelId":21,"sbu":"STR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849779_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Wide Angle Media","channelId":27,"sbu":"WAM","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849803_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"TURNER","channelId":24,"sbu":"TUR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849830_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hasbro","channelId":14,"sbu":"HBRP","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1523978839_2.jpg"},{"channelName":"Toonz Animation","channelId":23,"sbu":"TOON","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849990_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Dandelooo","channelId":10,"sbu":"DAN","imgURL":"http:\/\/voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1523881413_2.jpg"},{"channelName":"Dream Theatre","channelId":11,"sbu":"DTH","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524850238_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"}]},"status":{"code":200,"message":"OK"}}</t>
+  </si>
+  <si>
+    <t>When invalid offSet is passed</t>
+  </si>
+  <si>
+    <t>The offSet must be at least 0.</t>
+  </si>
+  <si>
+    <t>{"assets":null,"status":{"code":400,"message":"The offSet must be at least 0."}}</t>
+  </si>
+  <si>
+    <t>When alphanumeric characters are passed in offSet</t>
+  </si>
+  <si>
+    <t>offSet parameter must be numeric</t>
+  </si>
+  <si>
+    <t>{"assets":null,"status":{"code":400,"message":"offSet parameter must be numeric"}}</t>
+  </si>
+  <si>
+    <t>When Special Characters are passed in offSet</t>
+  </si>
+  <si>
+    <t>When empty offSet is passed</t>
+  </si>
+  <si>
+    <t>When null value is passed in offSet</t>
+  </si>
+  <si>
+    <t>When offSet is not passed</t>
+  </si>
+  <si>
+    <t>uId</t>
+  </si>
+  <si>
+    <t>profileId</t>
+  </si>
+  <si>
+    <t>When all valid parameters are passed with different limit and offset values</t>
+  </si>
+  <si>
+    <t>http://apiuat.vootkids.com/app/ui/v1/tabs/watch.json</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>djJ8MjI1fJEsEhQU2eizkr_q-bRoyLthyKJLmz0L6W-70i0O-WScqZYptN5fAe-8KL6NKR30iXwDcfxGT-CpQxuocn8lz-u2IAjIZ079qxmjLK_lktzqcEHo5Of-HJzNUrb0mCDa_9780-iOvU6PxA4nkqB5rXdyAuHEbLWWLE8boiDqzXxU0zJhkr2T-wENcD99wZgQPQ==</t>
+  </si>
+  <si>
+    <t>a7be25fe01fe48778369216db19adfe1</t>
+  </si>
+  <si>
+    <t>5ae1afd6811a3b12ccc6fa7d</t>
+  </si>
+  <si>
+    <t>{
+    "assets": [
+        {
+            "trayContentType": "inline",
+            "trayLayout": "mastHeadTray",
+            "sliderCount": "5",
+            "trayName": "mastHead",
+            "title": "Carousel",
+            "assets": [
+                {
+                    "items": [
+                        {
+                            "profile": "All",
+                            "itemType": "PUB",
+                            "cId": "8",
+                            "mId": "353650",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 664000,
+                            "title": "1 Jinn 2 Malik",
+                            "desc": "During a fight, Motu, Patlu and boxer find a lamp and free a jinn. Motu and boxer both claim to be his master.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/mastHead_1_0_image_1523885362.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "itemType": "PUB",
+                            "cId": "8",
+                            "mId": "353650",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 664000,
+                            "title": "1 Jinn 2 Malik",
+                            "desc": "During a fight, Motu, Patlu and boxer find a lamp and free a jinn. Motu and boxer both claim to be his master.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/mastHead_1_1_image_1523885363.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "itemType": "PUB",
+                            "cId": "8",
+                            "mId": "353650",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 664000,
+                            "title": "1 Jinn 2 Malik",
+                            "desc": "During a fight, Motu, Patlu and boxer find a lamp and free a jinn. Motu and boxer both claim to be his master.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/mastHead_1_2_image_1524810146.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "itemType": "PUB",
+                            "cId": "8",
+                            "mId": "353650",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 664000,
+                            "title": "1 Jinn 2 Malik",
+                            "desc": "During a fight, Motu, Patlu and boxer find a lamp and free a jinn. Motu and boxer both claim to be his master.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/mastHead_1_3_image_1524810146.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "itemType": "PUB",
+                            "cId": "8",
+                            "mId": "353650",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 664000,
+                            "title": "1 Jinn 2 Malik",
+                            "desc": "During a fight, Motu, Patlu and boxer find a lamp and free a jinn. Motu and boxer both claim to be his master.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/mastHead_1_4_image_1524810146.jpg"
+                        }
+                    ]
+                }
+            ]
+        },
+        {
+            "trayContentType": "dynamic",
+            "trayLayout": "segmentedTray",
+            "tabCount": "2",
+            "trayName": "watchTabs",
+            "segmentedTabs": [
+                {
+                    "tabId": "liveNow",
+                    "tabLayout": "gridTray",
+                    "tabLabel": "On Now",
+                    "tabContentType": "dynamic",
+                    "nextPageAPI": "http://apiuat.vootkids.com/v1/user/livenow.json"
+                },
+                {
+                    "tabId": "channels",
+                    "tabLayout": "gridTray",
+                    "tabLabel": "Channels",
+                    "tabContentType": "dynamic",
+                    "nextPageAPI": "http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"
+                }
+            ]
+        },
+        {
+            "trayContentType": "inline",
+            "trayLayout": "gridTray",
+            "trayName": "featureVideo",
+            "cId": "6",
+            "title": "Motu Patlu Specials 123",
+            "totalItems": 12,
+            "nextPageAPI": "http://apiuat.vootkids.com/app/curated/v1/getTrayMediaList.json?moduleId=906",
+            "assets": [
+                {
+                    "items": [
+                        {
+                            "profile": "All",
+                            "mId": "353559",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 622000,
+                            "title": "Bhoot Bangla",
+                            "desc": "Posters have been put up all across furfurinagar by Lala Bhagat Ram.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_0_image_1525764818.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353546",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 706000,
+                            "title": "Baby Dinosaur",
+                            "desc": "Patlu finds an egg in the forest that turns out to be an egg of a dinosaur.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_1_image_1525764819.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353573",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 674000,
+                            "title": "Army",
+                            "desc": "During an Independence Day celebration, Motu and Patlu volunteer to be a part of the army.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_2_image_1525764820.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353620",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 638000,
+                            "title": "Alien's house",
+                            "desc": "Motu Patlu run into an abandoned house to escape Chaiwala. Soon they realise that they have taken shelter in an alien's house.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_3_image_1525764820.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353631",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 698000,
+                            "title": "Aliens ke samose",
+                            "desc": "Two aliens abduct Motu to help them repair their space ship. But the space ship is too heavy for Motu to pick up. He needs samosas.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_4_image_1525764821.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353577",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 694000,
+                            "title": "Ants Land",
+                            "desc": "Motu Patlu are needed in Ants land to help the ants escape Zinguraa (a big black bug that eats ants).",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_5_image_1525764818maxresdefault-2.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353547",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 749000,
+                            "title": "Antariksh Yatra",
+                            "desc": "Motu Patlu are fooled yet again by Dr Jhatka and made to enter his newly invented Space rocket.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_6_image_1525764821.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "353531",
+                            "mediaType": 391,
+                            "contentType": "Full Episode",
+                            "duration": 681000,
+                            "title": "Animal Instincts",
+                            "desc": "Motu Patlu are given an injection by Dr Jhatka to enhance their physical abilities.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/featureVideo_1_7_image_1525764822.jpg"
+                        }
+                    ]
+                }
+            ]
+        },
+        {
+            "trayContentType": "inline",
+            "trayLayout": "gridTray",
+            "trayName": "showsPoster",
+            "cId": "11",
+            "title": "Most Popular Shows",
+            "totalItems": 21,
+            "nextPageAPI": "http://apiuat.vootkids.com/app/curated/v1/getTrayMediaList.json?moduleId=907",
+            "isKidsCharacters": 0,
+            "assets": [
+                {
+                    "items": [
+                        {
+                            "profile": "All",
+                            "mId": "411254",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Dexter's Lab",
+                            "desc": "Dexter, the young prodigy, owns a secret laboratory, accessible only to his hyperactive elder sister Dee Dee.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_0_image_1525765085maxresdefault-3.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "483692",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Cracke",
+                            "desc": "Meet anxious Ed and his beloved brood. All eight eggs are blessed with incredible luck. Unfortunately, things are different for Dad.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_1_image_1525765085.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "557383",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Chop Chop Ninja",
+                            "desc": "Iro, Jo, Tetsuo and Neeko are all set to face the toughest challenges and become the ultimate Ninjas!",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_2_image_1525765086.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "443575",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Chico Chica Boumba (E)",
+                            "desc": "Chico Chica Boumba Pepper School, where Miss Boumba and her team of coaches will teach 52 different dance forms from around the globe.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_3_image_1525765085maxresdefault-1.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "380336",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Chhoti Anandi (H)",
+                            "desc": "Set in a village this series revolves around the story of a vibrant little girl named Chhoti Anandi.",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_4_image_1525765085maxresdefault.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "488163",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Charlie and Lola (E)",
+                            "desc": "Follow the adventures of seven-year-old Charlie and his feisty little sister, Lola, in this fresh and delightfully",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_5_image_1525765085maxresdefault-2.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "479309",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Cedric (E)",
+                            "desc": "Everyday is an adventure when you're 8 years old! Cedric has more than his fair share of personality and a rather bad temper to match,",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_6_image_1525765086.jpg"
+                        },
+                        {
+                            "profile": "All",
+                            "mId": "457772",
+                            "mediaType": 389,
+                            "contentType": "Series",
+                            "duration": 0,
+                            "title": "Bob The Builder",
+                            "desc": "Bob the Builder and his friends dig, haul and build together! With friends like Muck the dump truck and Dizzy the cement mixer",
+                            "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/kids/showsPoster_1_7_image_1525765085maxresdefault.jpg"
+                        }
+                    ]
+                }
+            ]
+        },
+        {
+            "trayContentType": "dynamic",
+            "trayLayout": "gridTray",
+            "trayName": "allKidsCharacters",
+            "title": "All Kids Characters",
+            "nextPageAPI": "http://apiuat.vootkids.com/app/curated/v1/kidsCharacters.json",
+            "isKidsCharacters": 1
+        }
+    ],
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>when invalid limit is passed</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit must be at least 1."
+    }
+}</t>
+  </si>
+  <si>
+    <t>when Alpha numeric is passed</t>
+  </si>
+  <si>
+    <t>When special characters are passed in limit</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit field is required."
+    }
+}</t>
+  </si>
+  <si>
+    <t>When offset is Notpassed</t>
+  </si>
+  <si>
+    <t>when limit is not passed</t>
+  </si>
+  <si>
+    <t>offSet must be at least 0.</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet must be at least 0."
+    }
+}</t>
+  </si>
+  <si>
+    <t>When invalid Uid is passed</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>When special characters are passed in Uid</t>
+  </si>
+  <si>
+    <t>@@</t>
+  </si>
+  <si>
+    <t>uId parameter must be alphanumeric</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "uId parameter must be alphanumeric"
+    }
+}</t>
+  </si>
+  <si>
+    <t>When empty Uid is passed</t>
+  </si>
+  <si>
+    <t>uId parameter is required</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "uId parameter is required"
+    }
+}</t>
+  </si>
+  <si>
+    <t>When null value is passed in Uid</t>
+  </si>
+  <si>
+    <t>When Uid is not passed</t>
+  </si>
+  <si>
+    <t>When invalid ks value is passed</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>When empty value is passed in ks</t>
+  </si>
+  <si>
+    <t>ks parameter is required</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "ks parameter is required"
+    }
+}</t>
+  </si>
+  <si>
+    <t>When null value is passed in ks</t>
+  </si>
+  <si>
+    <t>When ks value is not passed</t>
+  </si>
+  <si>
+    <t>When invalid profileId is passed</t>
+  </si>
+  <si>
+    <t>When Special Characters are passed in profileId</t>
+  </si>
+  <si>
+    <t>profileId parameter must be alphanumeric</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "profileId parameter must be alphanumeric"
+    }
+}</t>
+  </si>
+  <si>
+    <t>When empty profileId is passed</t>
+  </si>
+  <si>
+    <t>profileId parameter is required</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "profileId parameter is required"
+    }
+}</t>
+  </si>
+  <si>
+    <t>When null value is passed in profileId</t>
+  </si>
+  <si>
+    <t>When profileId is not passed</t>
+  </si>
+  <si>
+    <t>when non mandatory parameters are passed</t>
+  </si>
+  <si>
+    <t>when mandatory parameters are passed</t>
+  </si>
+  <si>
+    <t>when all valid parameters are passed</t>
+  </si>
+  <si>
+    <t>http://apiuat.vootkids.com/app/curated/v1/kidsCharacters.json</t>
+  </si>
+  <si>
+    <t>when all valid parameters are passed with different limit and offset values</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>The limit field is required., offSet parameter is required</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{
+    "assets": {
+        "title": "All Characters",
+        "totalItems": 123,
+        "items": [
+            {
+                "mId": "383617",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1459068421_shiva-catoon.png",
+                "contentType": "Series",
+                "title": "Shiva",
+                "season": 1,
+                "language": "Hindi;Kannada;Tamil;Telugu",
+                "desc": "Meet the whiz kid Shiva, who lives in a city named Vedas. Watch him fight the villains who are out to damage the city on his super bike that can fly as well as float on water. Together with his three friends and pet dog they are indomitable.",
+                "startDate": 1458560880,
+                "endDate": 4070908800,
+                "yearofRelease": "2015",
+                "sbu": "NICK",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "359118",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1461253766_Kids_Series_6.png",
+                "contentType": "Series",
+                "title": "Pakdam Pakdai (H)",
+                "season": 1,
+                "language": "Hindi",
+                "desc": "True to its name, the series is a constant chase between Doggy Don, a friendly, slightly dumb dog and the 3 mice that live in his house. Doggy Don is aided in his attempts to defeat the mice by his older brother Colonel, an ex-army dog, who is smarter than Doggy Don, but not as smart as the 3 mice. The show is a constant dog and mouse chase and the havoc that ensues when Doggy Don and Colonel try and fight them and win back their territory.",
+                "startDate": 1452099900,
+                "endDate": 4070908800,
+                "yearofRelease": "2013",
+                "sbu": "SONIC",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "466398",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1482401313_mbas.png",
+                "contentType": "Series",
+                "title": "Mr Bean: The Animated Series",
+                "season": 1,
+                "language": "English",
+                "desc": "Mr Bean: The Animated Series' is based on the live-action series, Mr Bean. The series follows the antics of Mr Bean, and his best friend Teddy, the teddy bear. Mr Bean's entertaining reaction to everyday life events, along with the colourful and peppy characters in his life, culminates in a cheerful and witty journey.",
+                "startDate": 1482399720,
+                "endDate": 4070908800,
+                "yearofRelease": null,
+                "sbu": "END",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "387846",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1480501500_kidsCharacters_1_1_image_1469087335600-peppa-600.png",
+                "contentType": "Series",
+                "title": "Peppa Pig",
+                "season": 1,
+                "language": "English;Hindi;Kannada;Tamil;Telugu",
+                "desc": "Living with her family of four, Peppa is this perky little pig who loves to play games, dress up and jumping in muddy puddles. At the end of the day, her adventure brings her all the happiness she can get and bursts of snorty laughter.",
+                "startDate": 1459334220,
+                "endDate": 4070908800,
+                "yearofRelease": "2004",
+                "sbu": "ETO",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "431319",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1468661395_transformers-prime-600.png",
+                "contentType": "Series",
+                "title": "Transformers Prime",
+                "season": 1,
+                "language": "English;Hindi",
+                "desc": "Three friends in Jasper, Nevada are caught up in a robot war after they are taken to the base of the Autobots, a group of alien robots from Cybertron. Optimus Prime, the leader of the Autobots is out to defeat the evil Megatron and his army of Decepticons. Will he succeed?",
+                "startDate": 1468660680,
+                "endDate": 4070908800,
+                "yearofRelease": null,
+                "sbu": "HBR",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "411263",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1513308760_actual-600-_1.png",
+                "contentType": "Series",
+                "title": "Roll No. 21",
+                "season": 1,
+                "language": "Hindi;English;Tamil;Telugu",
+                "desc": "Kanishk, the principal of Mathura Anaath Ashram, pretending to enforce obedience, tries to turn the kids into evil beings. As Kris keeps all the innocence alive in the children, Kanishk is constantly fighting him with demons from Paataal Lok. Will Kris manage to keep defeating the demons?",
+                "startDate": 1465376640,
+                "endDate": 4070908800,
+                "yearofRelease": null,
+                "sbu": "TUR",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "359110",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg2.voot.com/cmsdev/include/upload/series-image/kidsCharacter_1516286899_series_1461253833_series_Kids_Series_3.png",
+                "contentType": "Series",
+                "title": "Motu Patlu",
+                "season": 1,
+                "language": "Hindi;Kannada;Tamil;Bengali;Telugu",
+                "desc": "Inspired from the characters of Lot Pot Comics, Motu Patlu is a lively comic caper for the kids as well as the entire family. Set in the beautiful city of Furfuri Nagariya, the story is about Motu and Patlu , who are as similar as chalk and cheese. The Awesome Twosome are always on an adventurous expedition and have an uncanny ability to get into tricky situations every single day!",
+                "startDate": 1452099840,
+                "endDate": 4070908800,
+                "yearofRelease": "2012",
+                "sbu": "NICK",
+                "imgBgColor": "#FFFFFF"
+            }
+        ]
+    },
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": {
+        "title": "All Characters",
+        "totalItems": 123,
+        "items": [
+            {
+                "mId": "359118",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1461253766_Kids_Series_6.png",
+                "contentType": "Series",
+                "title": "Pakdam Pakdai (H)",
+                "season": 1,
+                "language": "Hindi",
+                "desc": "True to its name, the series is a constant chase between Doggy Don, a friendly, slightly dumb dog and the 3 mice that live in his house. Doggy Don is aided in his attempts to defeat the mice by his older brother Colonel, an ex-army dog, who is smarter than Doggy Don, but not as smart as the 3 mice. The show is a constant dog and mouse chase and the havoc that ensues when Doggy Don and Colonel try and fight them and win back their territory.",
+                "startDate": 1452099900,
+                "endDate": 4070908800,
+                "yearofRelease": "2013",
+                "sbu": "SONIC",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "466398",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1482401313_mbas.png",
+                "contentType": "Series",
+                "title": "Mr Bean: The Animated Series",
+                "season": 1,
+                "language": "English",
+                "desc": "Mr Bean: The Animated Series' is based on the live-action series, Mr Bean. The series follows the antics of Mr Bean, and his best friend Teddy, the teddy bear. Mr Bean's entertaining reaction to everyday life events, along with the colourful and peppy characters in his life, culminates in a cheerful and witty journey.",
+                "startDate": 1482399720,
+                "endDate": 4070908800,
+                "yearofRelease": null,
+                "sbu": "END",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "387846",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1480501500_kidsCharacters_1_1_image_1469087335600-peppa-600.png",
+                "contentType": "Series",
+                "title": "Peppa Pig",
+                "season": 1,
+                "language": "English;Hindi;Kannada;Tamil;Telugu",
+                "desc": "Living with her family of four, Peppa is this perky little pig who loves to play games, dress up and jumping in muddy puddles. At the end of the day, her adventure brings her all the happiness she can get and bursts of snorty laughter.",
+                "startDate": 1459334220,
+                "endDate": 4070908800,
+                "yearofRelease": "2004",
+                "sbu": "ETO",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "431319",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1468661395_transformers-prime-600.png",
+                "contentType": "Series",
+                "title": "Transformers Prime",
+                "season": 1,
+                "language": "English;Hindi",
+                "desc": "Three friends in Jasper, Nevada are caught up in a robot war after they are taken to the base of the Autobots, a group of alien robots from Cybertron. Optimus Prime, the leader of the Autobots is out to defeat the evil Megatron and his army of Decepticons. Will he succeed?",
+                "startDate": 1468660680,
+                "endDate": 4070908800,
+                "yearofRelease": null,
+                "sbu": "HBR",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "411263",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1513308760_actual-600-_1.png",
+                "contentType": "Series",
+                "title": "Roll No. 21",
+                "season": 1,
+                "language": "Hindi;English;Tamil;Telugu",
+                "desc": "Kanishk, the principal of Mathura Anaath Ashram, pretending to enforce obedience, tries to turn the kids into evil beings. As Kris keeps all the innocence alive in the children, Kanishk is constantly fighting him with demons from Paataal Lok. Will Kris manage to keep defeating the demons?",
+                "startDate": 1465376640,
+                "endDate": 4070908800,
+                "yearofRelease": null,
+                "sbu": "TUR",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "359110",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg2.voot.com/cmsdev/include/upload/series-image/kidsCharacter_1516286899_series_1461253833_series_Kids_Series_3.png",
+                "contentType": "Series",
+                "title": "Motu Patlu",
+                "season": 1,
+                "language": "Hindi;Kannada;Tamil;Bengali;Telugu",
+                "desc": "Inspired from the characters of Lot Pot Comics, Motu Patlu is a lively comic caper for the kids as well as the entire family. Set in the beautiful city of Furfuri Nagariya, the story is about Motu and Patlu , who are as similar as chalk and cheese. The Awesome Twosome are always on an adventurous expedition and have an uncanny ability to get into tricky situations every single day!",
+                "startDate": 1452099840,
+                "endDate": 4070908800,
+                "yearofRelease": "2012",
+                "sbu": "NICK",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "364980",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1461254220_keymon_revised-600.png",
+                "contentType": "Series",
+                "title": "Keymon Ache",
+                "season": 1,
+                "language": "Hindi;Tamil;Telugu",
+                "desc": "The story revolves around a kid, Rohan, who along with his magical friend, Keymon Ache, tries to get rid of his problems, but the magic always lands him in trouble.",
+                "startDate": 1453875240,
+                "endDate": 4070908800,
+                "yearofRelease": "2014",
+                "sbu": "NICK",
+                "imgBgColor": "#FFFFFF"
+            },
+            {
+                "mId": "368895",
+                "mediaType": 389,
+                "genre": "Kids",
+                "imgURL": "http://dimg.voot.com/include/upload/vertical-images/compressed/series_1461253973_panda.png",
+                "contentType": "Series",
+                "title": "Kung Fu Panda",
+                "season": 1,
+                "language": "English;Hindi;Kannada;Tamil;Telugu",
+                "desc": "Po and the Furious Five defend the Valley of Peace from villains of different kinds. All the while, Po makes mistakes, learns lessons, learns more about the history of kung fu, and meets other famous kung fu Masters.",
+                "startDate": 1454911560,
+                "endDate": 4070908800,
+                "yearofRelease": "2011",
+                "sbu": "NICK",
+                "imgBgColor": "#FFFFFF"
+            }
+        ]
+    },
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "limit parameter must be numeric"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit field is required., offSet parameter is required"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The offSet must be at least 0."
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet parameter must be numeric"
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -205,12 +1629,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,14 +1649,54 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF505050"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,28 +1713,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,7 +1733,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,19 +1747,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,25 +1816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,16 +1830,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,19 +1847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +1871,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,61 +1931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +1967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,19 +1991,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,34 +2027,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -595,6 +2063,49 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +2136,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,9 +2199,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +2213,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,256 +2264,295 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="21" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="16" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="16" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="37">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="10"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -962,10 +2566,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1129,21 +2733,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1160,7 +2764,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1213,619 +2817,2929 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="52.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="9.85714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.1428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.85714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="G7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="G8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="F12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="F16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="G17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E18" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="G19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="E20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>53</v>
+      <c r="G20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C16" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C17" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C18" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C19" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C20" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C2" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C4"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C5"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C6"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C7"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C8"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C9"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C10"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C11"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C12"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C13"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C14"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C15"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C3"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C16"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C17"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C18"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C19"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C20"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="58.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.5714285714286" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C2"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C3"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C4"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C6"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C5"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C7"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C8"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C9"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C10"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C11"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C12"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C13"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C14"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C15"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="42.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="45.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.7142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7142857142857" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="2" spans="1:12">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="38" r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="55" r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="58" r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60" r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60" r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60" r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60" r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="75.75" r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="45.75" r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="45.75" r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="45.75" r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="75.75" r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60.75" r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="51" r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="60" r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="37.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="57.7142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30" r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="33" r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30.75" r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/VootKidsSprint2.xlsx
+++ b/VootKidsSprint2.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11850" windowWidth="19200"/>
+    <workbookView windowWidth="19200" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Watch_history" r:id="rId1" sheetId="1"/>
-    <sheet name="Master" r:id="rId2" sheetId="2"/>
-    <sheet name="Channel" r:id="rId3" sheetId="4"/>
-    <sheet name="Watch" r:id="rId4" sheetId="5"/>
-    <sheet name="kidscharacters" r:id="rId5" sheetId="6"/>
-    <sheet name="gettraymedialist" r:id="rId6" sheetId="7"/>
+    <sheet name="Watch_history" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
+    <sheet name="Channel" sheetId="4" r:id="rId3"/>
+    <sheet name="Watch" sheetId="5" r:id="rId4"/>
+    <sheet name="kidscharacters" sheetId="6" r:id="rId5"/>
+    <sheet name="gettraymedialist" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>TestType</t>
   </si>
@@ -213,9 +213,18 @@
     <t>get tray channel media list</t>
   </si>
   <si>
+    <t>Data Type</t>
+  </si>
+  <si>
     <t>http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json</t>
   </si>
   <si>
+    <t>assets.items</t>
+  </si>
+  <si>
+    <t>channelName,channelId,sbu,imgURL</t>
+  </si>
+  <si>
     <t>When all valid parameters with different offset and limit values</t>
   </si>
   <si>
@@ -286,337 +295,6 @@
   </si>
   <si>
     <t>5ae1afd6811a3b12ccc6fa7d</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>when invalid limit is passed</t>
-  </si>
-  <si>
-    <t>when Alpha numeric is passed</t>
-  </si>
-  <si>
-    <t>When special characters are passed in limit</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>When offset is Notpassed</t>
-  </si>
-  <si>
-    <t>when limit is not passed</t>
-  </si>
-  <si>
-    <t>offSet must be at least 0.</t>
-  </si>
-  <si>
-    <t>When invalid Uid is passed</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>When special characters are passed in Uid</t>
-  </si>
-  <si>
-    <t>@@</t>
-  </si>
-  <si>
-    <t>uId parameter must be alphanumeric</t>
-  </si>
-  <si>
-    <t>When empty Uid is passed</t>
-  </si>
-  <si>
-    <t>uId parameter is required</t>
-  </si>
-  <si>
-    <t>When null value is passed in Uid</t>
-  </si>
-  <si>
-    <t>When Uid is not passed</t>
-  </si>
-  <si>
-    <t>When invalid ks value is passed</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>When empty value is passed in ks</t>
-  </si>
-  <si>
-    <t>ks parameter is required</t>
-  </si>
-  <si>
-    <t>When null value is passed in ks</t>
-  </si>
-  <si>
-    <t>When ks value is not passed</t>
-  </si>
-  <si>
-    <t>When invalid profileId is passed</t>
-  </si>
-  <si>
-    <t>When Special Characters are passed in profileId</t>
-  </si>
-  <si>
-    <t>profileId parameter must be alphanumeric</t>
-  </si>
-  <si>
-    <t>When empty profileId is passed</t>
-  </si>
-  <si>
-    <t>profileId parameter is required</t>
-  </si>
-  <si>
-    <t>When null value is passed in profileId</t>
-  </si>
-  <si>
-    <t>When profileId is not passed</t>
-  </si>
-  <si>
-    <t>when non mandatory parameters are passed</t>
-  </si>
-  <si>
-    <t>when mandatory parameters are passed</t>
-  </si>
-  <si>
-    <t>when all valid parameters are passed</t>
-  </si>
-  <si>
-    <t>http://apiuat.vootkids.com/app/curated/v1/kidsCharacters.json</t>
-  </si>
-  <si>
-    <t>when all valid parameters are passed with different limit and offset values</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>moduleId</t>
-  </si>
-  <si>
-    <t>http://apiuat.vootkids.com/app/curated/v1/getTrayMediaList.json</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>When invalid moduleId is passed</t>
-  </si>
-  <si>
-    <t>-906</t>
-  </si>
-  <si>
-    <t>moduleId must be at least 1</t>
-  </si>
-  <si>
-    <t>When alphanumeric chaaracters are passed in moduleId</t>
-  </si>
-  <si>
-    <t>moduleId parameter must be numeric</t>
-  </si>
-  <si>
-    <t>When Special Characters are passed in moduleId</t>
-  </si>
-  <si>
-    <t>When empty moduleId is passed</t>
-  </si>
-  <si>
-    <t>moduleId parameter is required</t>
-  </si>
-  <si>
-    <t>when module Id is not passed</t>
-  </si>
-  <si>
-    <t>When null value is passed in moduleId</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{
-    "assets": {
-        "title": "Channels",
-        "totalItems": 15,
-        "items": [
-            {
-                "channelName": "Nickelodeon 1",
-                "channelId": 3,
-                "sbu": "NICK1",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Entertainment one",
-                "channelId": 12,
-                "sbu": "ETO",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Green Gold",
-                "channelId": 13,
-                "sbu": "GRG",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Hit Entertainment",
-                "channelId": 16,
-                "sbu": "HITENT",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Hi5",
-                "channelId": 15,
-                "sbu": "HI5",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Millimages",
-                "channelId": 18,
-                "sbu": "MIL",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Karadi Tales",
-                "channelId": 17,
-                "sbu": "KAR",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            }
-        ]
-    },
-    "status": {
-        "code": 200,
-        "message": "OK"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": {
-        "title": "Channels",
-        "totalItems": 15,
-        "items": [
-            {
-                "channelName": "Nickelodeon 1",
-                "channelId": 3,
-                "sbu": "NICK1",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Entertainment one",
-                "channelId": 12,
-                "sbu": "ETO",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Green Gold",
-                "channelId": 13,
-                "sbu": "GRG",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Hit Entertainment",
-                "channelId": 16,
-                "sbu": "HITENT",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Hi5",
-                "channelId": 15,
-                "sbu": "HI5",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Millimages",
-                "channelId": 18,
-                "sbu": "MIL",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Karadi Tales",
-                "channelId": 17,
-                "sbu": "KAR",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            },
-            {
-                "channelName": "Yoboho",
-                "channelId": 28,
-                "sbu": "YOB",
-                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849755_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
-            }
-        ]
-    },
-    "status": {
-        "code": 200,
-        "message": "OK"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The limit must be at least 1."
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "limit parameter must be numeric"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The limit field is required."
-    }
-}</t>
-  </si>
-  <si>
-    <t>{"assets":{"title":"Channels","totalItems":15,"items":[{"channelName":"Nickelodeon 1","channelId":3,"sbu":"NICK1","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Entertainment one","channelId":12,"sbu":"ETO","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Green Gold","channelId":13,"sbu":"GRG","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hit Entertainment","channelId":16,"sbu":"HITENT","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hi5","channelId":15,"sbu":"HI5","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Millimages","channelId":18,"sbu":"MIL","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Karadi Tales","channelId":17,"sbu":"KAR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Yoboho","channelId":28,"sbu":"YOB","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849755_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Strika Entertainment","channelId":21,"sbu":"STR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849779_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Wide Angle Media","channelId":27,"sbu":"WAM","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849803_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"TURNER","channelId":24,"sbu":"TUR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849830_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hasbro","channelId":14,"sbu":"HBRP","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1523978839_2.jpg"},{"channelName":"Toonz Animation","channelId":23,"sbu":"TOON","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849990_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Dandelooo","channelId":10,"sbu":"DAN","imgURL":"http:\/\/voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1523881413_2.jpg"},{"channelName":"Dream Theatre","channelId":11,"sbu":"DTH","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524850238_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"}]},"status":{"code":200,"message":"OK"}}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The offSet must be at least 0."
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "offSet parameter must be numeric"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "offSet parameter is required"
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -923,6 +601,24 @@
 }</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>when invalid limit is passed</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit must be at least 1."
+    }
+}</t>
+  </si>
+  <si>
+    <t>when Alpha numeric is passed</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -932,6 +628,30 @@
 }</t>
   </si>
   <si>
+    <t>When special characters are passed in limit</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit field is required."
+    }
+}</t>
+  </si>
+  <si>
+    <t>When offset is Notpassed</t>
+  </si>
+  <si>
+    <t>when limit is not passed</t>
+  </si>
+  <si>
+    <t>offSet must be at least 0.</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -954,9 +674,39 @@
     "assets": null,
     "status": {
         "code": 400,
+        "message": "offSet parameter is required"
+    }
+}</t>
+  </si>
+  <si>
+    <t>When invalid Uid is passed</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>When special characters are passed in Uid</t>
+  </si>
+  <si>
+    <t>@@</t>
+  </si>
+  <si>
+    <t>uId parameter must be alphanumeric</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
         "message": "uId parameter must be alphanumeric"
     }
 }</t>
+  </si>
+  <si>
+    <t>When empty Uid is passed</t>
+  </si>
+  <si>
+    <t>uId parameter is required</t>
   </si>
   <si>
     <t>{
@@ -968,6 +718,24 @@
 }</t>
   </si>
   <si>
+    <t>When null value is passed in Uid</t>
+  </si>
+  <si>
+    <t>When Uid is not passed</t>
+  </si>
+  <si>
+    <t>When invalid ks value is passed</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>When empty value is passed in ks</t>
+  </si>
+  <si>
+    <t>ks parameter is required</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -977,6 +745,21 @@
 }</t>
   </si>
   <si>
+    <t>When null value is passed in ks</t>
+  </si>
+  <si>
+    <t>When ks value is not passed</t>
+  </si>
+  <si>
+    <t>When invalid profileId is passed</t>
+  </si>
+  <si>
+    <t>When Special Characters are passed in profileId</t>
+  </si>
+  <si>
+    <t>profileId parameter must be alphanumeric</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -986,6 +769,12 @@
 }</t>
   </si>
   <si>
+    <t>When empty profileId is passed</t>
+  </si>
+  <si>
+    <t>profileId parameter is required</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -993,6 +782,24 @@
         "message": "profileId parameter is required"
     }
 }</t>
+  </si>
+  <si>
+    <t>When null value is passed in profileId</t>
+  </si>
+  <si>
+    <t>When profileId is not passed</t>
+  </si>
+  <si>
+    <t>when non mandatory parameters are passed</t>
+  </si>
+  <si>
+    <t>when mandatory parameters are passed</t>
+  </si>
+  <si>
+    <t>when all valid parameters are passed</t>
+  </si>
+  <si>
+    <t>http://apiuat.vootkids.com/app/curated/v1/kidsCharacters.json</t>
   </si>
   <si>
     <t>{
@@ -1148,6 +955,9 @@
         "message": "OK"
     }
 }</t>
+  </si>
+  <si>
+    <t>when all valid parameters are passed with different limit and offset values</t>
   </si>
   <si>
     <t>{
@@ -1326,6 +1136,48 @@
 }</t>
   </si>
   <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "limit parameter must be numeric"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The offSet must be at least 0."
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet parameter must be numeric"
+    }
+}</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>http://apiuat.vootkids.com/app/curated/v1/getTrayMediaList.json</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>{
     "assets": {
         "items": [
@@ -1450,6 +1302,15 @@
 }</t>
   </si>
   <si>
+    <t>When invalid moduleId is passed</t>
+  </si>
+  <si>
+    <t>-906</t>
+  </si>
+  <si>
+    <t>moduleId must be at least 1</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -1459,6 +1320,12 @@
 }</t>
   </si>
   <si>
+    <t>When alphanumeric chaaracters are passed in moduleId</t>
+  </si>
+  <si>
+    <t>moduleId parameter must be numeric</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -1468,6 +1335,15 @@
 }</t>
   </si>
   <si>
+    <t>When Special Characters are passed in moduleId</t>
+  </si>
+  <si>
+    <t>When empty moduleId is passed</t>
+  </si>
+  <si>
+    <t>moduleId parameter is required</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -1477,6 +1353,15 @@
 }</t>
   </si>
   <si>
+    <t>when module Id is not passed</t>
+  </si>
+  <si>
+    <t>When null value is passed in moduleId</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
     <t>{
     "assets": null,
     "status": {
@@ -1485,499 +1370,16 @@
     }
 }</t>
   </si>
-  <si>
-    <t>{
-    "assets": {
-        "totalItems": 8,
-        "items": [
-            {
-                "mId": "562367",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg",
-                "startDate": 1516204151,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_cbm4k22s",
-                "episodeNo": 255.1,
-                "title": "The Danger Man",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Telugu"
-                ],
-                "IngestDate": 1516204151,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 595000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 595,
-                "watchedDate": 1524812897,
-                "finishedWatching": true
-            },
-            {
-                "mId": "562273",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/edebac5223174e7d9d7cf5d9e99be2c3_1280X720.jpg",
-                "startDate": 1516190767,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Dr. Jhatka invents a camera which can transform anything into a crystalline form. When he shows his new invention to Motu, he grabs it from Dr. Jhatka. What will happen when Motu tries to take pictures of his friends and neighbours using the camera?",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_3q1ajqai",
-                "episodeNo": 253.2,
-                "title": "The crystal camera",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Telugu"
-                ],
-                "IngestDate": 1516190767,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 572000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 572,
-                "watchedDate": 1524826454,
-                "finishedWatching": true
-            },
-            {
-                "mId": "476903",
-                "mediaType": 391,
-                "season": 2,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg",
-                "startDate": 1486801232,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?",
-                "refSeriesTitle": "Mr Bean: The Animated Series",
-                "entryId": "0_51wntvcw",
-                "episodeNo": 250,
-                "title": "The Photograph",
-                "contentType": "Full Episode",
-                "language": [
-                    "English"
-                ],
-                "IngestDate": 1486801232,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 659000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "END",
-                "watchedDuration": 659,
-                "watchedDate": 1524813606,
-                "finishedWatching": true
-            },
-            {
-                "mId": "476878",
-                "mediaType": 391,
-                "season": 2,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg",
-                "startDate": 1486758928,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?",
-                "refSeriesTitle": "Mr Bean: The Animated Series",
-                "entryId": "0_9yw2qjyp",
-                "episodeNo": 246,
-                "title": "In the garden",
-                "contentType": "Full Episode",
-                "language": [
-                    "English"
-                ],
-                "IngestDate": 1486758928,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 659000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "END",
-                "watchedDuration": 659,
-                "watchedDate": 1524814199,
-                "finishedWatching": true
-            },
-            {
-                "mId": "475818",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Reality",
-                "imgURL": "http://kimg.voot.com/kimg/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg",
-                "startDate": 1486330263,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.",
-                "refSeriesTitle": "Rising Star",
-                "entryId": "0_382ok3oj",
-                "episodeNo": 2.6,
-                "title": "Episode 2 - Part 6",
-                "contentType": "Full Episode",
-                "language": [
-                    "Hindi"
-                ],
-                "IngestDate": 1486330263,
-                "telecastDate": 20170205,
-                "isDownable": "No",
-                "duration": 542000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "COH",
-                "watchedDuration": 542,
-                "watchedDate": 1524811382,
-                "finishedWatching": true
-            },
-            {
-                "mId": "353522",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg",
-                "startDate": 1449923058,
-                "endDate": 5233691533,
-                "yearofRelease": "2012",
-                "desc": "Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_gvdc8cxe",
-                "episodeNo": 2,
-                "title": "Pilot Training",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Bengali",
-                    "Kannada",
-                    "Telugu"
-                ],
-                "IngestDate": 1449923058,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 600000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 600,
-                "watchedDate": 1524812597,
-                "finishedWatching": true
-            },
-            {
-                "mId": "353520",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg",
-                "startDate": 1449923057,
-                "endDate": 5233691533,
-                "yearofRelease": "2012",
-                "desc": "Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_efpdpa7z",
-                "episodeNo": 1,
-                "title": "Jon Banega Don",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Bengali",
-                    "Kannada",
-                    "Telugu"
-                ],
-                "IngestDate": 1449923057,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 670000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 670,
-                "watchedDate": 1524812370,
-                "finishedWatching": true
-            }
-        ]
-    },
-    "status": {
-        "code": 200,
-        "message": "OK"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": {
-        "totalItems": 8,
-        "items": [
-            {
-                "mId": "562367",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/bea0d9db8d6e472880ebacafb4b6b1f7_1280X720.jpg",
-                "startDate": 1516204151,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "The residents of Furfuri Nagar are terrified of the Danger Man. The Danger Man is none other than a creation of John and his men in order to keep the residents of Furfuri Nagar in a state of perpetual fear. Will Motu and Patlu be able to put an end to John's antics? Tune in now to find out.",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_cbm4k22s",
-                "episodeNo": 255.1,
-                "title": "The Danger Man",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Telugu"
-                ],
-                "IngestDate": 1516204151,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 595000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 595,
-                "watchedDate": 1524812897,
-                "finishedWatching": true
-            },
-            {
-                "mId": "476903",
-                "mediaType": 391,
-                "season": 2,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/064e1273421a45c3bd873fa4a4cde4d2_1280X720.jpg",
-                "startDate": 1486801232,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Mr Bean finds his passport photograph missing at the Airport check-in counter. He goes to great lengths to get a new passport photograph. Will he board his plane on time?",
-                "refSeriesTitle": "Mr Bean: The Animated Series",
-                "entryId": "0_51wntvcw",
-                "episodeNo": 250,
-                "title": "The Photograph",
-                "contentType": "Full Episode",
-                "language": [
-                    "English"
-                ],
-                "IngestDate": 1486801232,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 659000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "END",
-                "watchedDuration": 659,
-                "watchedDate": 1524813606,
-                "finishedWatching": true
-            },
-            {
-                "mId": "476878",
-                "mediaType": 391,
-                "season": 2,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/f84facf8168c41768e39c627a0dcd9c4_1280X720.jpg",
-                "startDate": 1486758928,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Mrs Wicket asks Mr Bean to mow the lawn. He breaks the shovel and goes to buy a new one, only to find that he can't afford it. To his surprise, there is a gardening show and the winner receives a golden shovel. Can Mr Bean impress the Queen and win it?",
-                "refSeriesTitle": "Mr Bean: The Animated Series",
-                "entryId": "0_9yw2qjyp",
-                "episodeNo": 246,
-                "title": "In the garden",
-                "contentType": "Full Episode",
-                "language": [
-                    "English"
-                ],
-                "IngestDate": 1486758928,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 659000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "END",
-                "watchedDuration": 659,
-                "watchedDate": 1524814199,
-                "finishedWatching": true
-            },
-            {
-                "mId": "475818",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Reality",
-                "imgURL": "http://kimg.voot.com/kimg/38f64e24f9174f8ab0a66ba9103c5a11_1280X720.jpg",
-                "startDate": 1486330263,
-                "endDate": 5233691533,
-                "yearofRelease": null,
-                "desc": "Anita Bhatt from Lucknow sets the stage ablaze with her power packed performance. Watch her perform the iconic hit song Laila Main Laila only on Voot.",
-                "refSeriesTitle": "Rising Star",
-                "entryId": "0_382ok3oj",
-                "episodeNo": 2.6,
-                "title": "Episode 2 - Part 6",
-                "contentType": "Full Episode",
-                "language": [
-                    "Hindi"
-                ],
-                "IngestDate": 1486330263,
-                "telecastDate": 20170205,
-                "isDownable": "No",
-                "duration": 542000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "COH",
-                "watchedDuration": 542,
-                "watchedDate": 1524811382,
-                "finishedWatching": true
-            },
-            {
-                "mId": "353522",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/6909120193ba4e3ba0c228ab8f965930_1280X720.jpg",
-                "startDate": 1449923058,
-                "endDate": 5233691533,
-                "yearofRelease": "2012",
-                "desc": "Motu &amp; Patlu approach Dr Jhatka asking for help to train them to be pilots. They jump into his new flying car and take off. But things go bad when Dr Jhatka informs them that he has not yet taken care of the mechanism that would make the car stop or land",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_gvdc8cxe",
-                "episodeNo": 2,
-                "title": "Pilot Training",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Bengali",
-                    "Kannada",
-                    "Telugu"
-                ],
-                "IngestDate": 1449923058,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 600000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 600,
-                "watchedDate": 1524812597,
-                "finishedWatching": true
-            },
-            {
-                "mId": "353520",
-                "mediaType": 391,
-                "season": 1,
-                "genre": "Kids",
-                "imgURL": "http://kimg.voot.com/kimg/abc862ecf8e84ba2bbd5f3417a3956ea_1280X720.jpg",
-                "startDate": 1449923057,
-                "endDate": 5233691533,
-                "yearofRelease": "2012",
-                "desc": "Motu Patlu find a half torn 500 Rs note that is actually a cue for John to recognize the dealer with whom he has struck a diamond deal. Confusion strikes when his goons hand over a bag full of money to Motu Patlu instead of the diamond dealer.",
-                "refSeriesTitle": "Motu Patlu",
-                "entryId": "0_efpdpa7z",
-                "episodeNo": 1,
-                "title": "Jon Banega Don",
-                "contentType": "Full Episode",
-                "language": [
-                    "Tamil",
-                    "Hindi",
-                    "Bengali",
-                    "Kannada",
-                    "Telugu"
-                ],
-                "IngestDate": 1449923057,
-                "telecastDate": 0,
-                "isDownable": "Yes",
-                "duration": 670000,
-                "nextCue": null,
-                "isThreeSixty": 0,
-                "totalItems": null,
-                "sbu": "NICK",
-                "watchedDuration": 670,
-                "watchedDate": 1524812370,
-                "finishedWatching": true
-            }
-        ]
-    },
-    "status": {
-        "code": 200,
-        "message": "OK"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "limit value must be greater than or equal 1"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"limit parameter is required"}}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "offSet value must be greater than or equal 0"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"offSet parameter is required"}}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 404,
-        "message": "Data not found "
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The ks field is required."
-    }
-}</t>
-  </si>
-  <si>
-    <t>{"assets":null,"status":{"code":400,"message":"The ks field is required."}}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2643,291 +2045,291 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="176">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="179">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="178">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="177">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="9">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="5" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="17" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="21" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="16" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="16" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="20" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="10"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2941,10 +2343,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3108,21 +2510,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3139,7 +2541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3192,23 +2594,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="67.8571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.85714285714286" collapsed="true"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="67.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.85714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3268,12 +2670,6 @@
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
@@ -3300,12 +2696,6 @@
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -3332,12 +2722,6 @@
       <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
@@ -3364,12 +2748,6 @@
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
@@ -3396,12 +2774,6 @@
       <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -3428,12 +2800,6 @@
       <c r="H7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
@@ -3460,12 +2826,6 @@
       <c r="H8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
@@ -3492,12 +2852,6 @@
       <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
@@ -3524,12 +2878,6 @@
       <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
@@ -3556,14 +2904,8 @@
       <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" spans="1:8">
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -3588,14 +2930,8 @@
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" spans="1:8">
+    </row>
+    <row r="13" customFormat="1" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -3620,14 +2956,8 @@
       <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" spans="1:8">
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -3652,14 +2982,8 @@
       <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" spans="1:8">
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -3684,14 +3008,8 @@
       <c r="H15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" spans="1:8">
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -3716,14 +3034,8 @@
       <c r="H16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I16" t="s">
-        <v>173</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" spans="1:8">
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3748,14 +3060,8 @@
       <c r="H17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" t="s">
-        <v>173</v>
-      </c>
-      <c r="J17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" spans="1:8">
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -3780,14 +3086,8 @@
       <c r="H18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I18" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" spans="1:8">
+    </row>
+    <row r="19" customFormat="1" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3812,51 +3112,45 @@
       <c r="H19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C2" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C4"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C5"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C6"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C7"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C8"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C9"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C10"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C11"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C12"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C13"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C14"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C15"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C3"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C16"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C17"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C18"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C19"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C16" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C17" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C18" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.7142857142857" collapsed="true"/>
+    <col min="2" max="2" width="26.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3883,14 +3177,14 @@
       <c r="B2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3900,14 +3194,14 @@
       <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3917,14 +3211,14 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3934,14 +3228,14 @@
       <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3968,29 +3262,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="H2:I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="58.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.5714285714286" collapsed="true"/>
+    <col min="2" max="2" width="58.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="6" max="6" width="15.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="9" max="9" width="13.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4017,6 +3312,9 @@
       </c>
       <c r="I1" s="11" t="s">
         <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4027,7 +3325,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>13</v>
@@ -4036,16 +3334,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4053,28 +3345,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4082,10 +3368,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>25</v>
@@ -4097,13 +3383,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4111,10 +3391,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>22</v>
@@ -4126,13 +3406,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4143,7 +3417,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
@@ -4155,13 +3429,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4169,10 +3437,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>32</v>
@@ -4184,13 +3452,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4201,7 +3463,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -4213,13 +3475,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4230,7 +3486,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
@@ -4244,22 +3500,16 @@
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>13</v>
@@ -4271,13 +3521,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4285,10 +3529,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>13</v>
@@ -4300,13 +3544,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4314,10 +3552,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>13</v>
@@ -4329,13 +3567,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4343,10 +3575,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>13</v>
@@ -4360,22 +3592,16 @@
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>13</v>
@@ -4387,13 +3613,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4401,10 +3621,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>13</v>
@@ -4418,39 +3638,33 @@
       <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C2"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C3"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C4"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C6"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C5"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C7"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C8"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C9"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C10"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C11"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C12"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C13"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C14"/>
-    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C15"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" tooltip="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="D26" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
@@ -4458,14 +3672,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="42.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="45.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.85714285714286" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.7142857142857" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.7142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7142857142857" collapsed="true"/>
+    <col min="2" max="2" width="42.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4488,10 +3702,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4506,30 +3720,30 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="34" r="2" spans="1:10">
+    <row r="2" ht="34" customHeight="1" spans="1:12">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
@@ -4538,13 +3752,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="38" r="3" spans="1:10">
+    <row r="3" ht="38" customHeight="1" spans="1:12">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -4552,22 +3766,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
@@ -4576,21 +3790,21 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="55" r="4" spans="1:10">
+    <row r="4" ht="55" customHeight="1" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>37</v>
@@ -4599,36 +3813,36 @@
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="58" customHeight="1" spans="1:12">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="58" r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
@@ -4637,13 +3851,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
@@ -4652,36 +3866,36 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60" r="6" spans="1:10">
+    <row r="6" ht="60" spans="1:12">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>16</v>
@@ -4690,21 +3904,21 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:10">
+    <row r="7" ht="60" spans="1:12">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
@@ -4713,28 +3927,28 @@
         <v>14</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60" r="8" spans="1:10">
+    <row r="8" ht="60" spans="1:12">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4742,7 +3956,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -4751,13 +3965,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
@@ -4766,36 +3980,36 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60" r="9" spans="1:10">
+    <row r="9" ht="60" spans="1:12">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
@@ -4804,21 +4018,21 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="10" spans="1:10">
+    <row r="10" ht="60.75" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -4827,13 +4041,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>16</v>
@@ -4842,74 +4056,74 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="11" spans="1:10">
+    <row r="11" ht="60.75" spans="1:12">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="60.75" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="D12" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="60.75" r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>16</v>
@@ -4918,36 +4132,36 @@
         <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="13" spans="1:10">
+    <row r="13" ht="60.75" spans="1:12">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>16</v>
@@ -4956,36 +4170,36 @@
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="14" spans="1:10">
+    <row r="14" ht="60.75" spans="1:12">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>16</v>
@@ -4994,36 +4208,36 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="15" spans="1:10">
+    <row r="15" ht="60.75" spans="1:12">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>16</v>
@@ -5032,36 +4246,36 @@
         <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="16" spans="1:10">
+    <row r="16" ht="60.75" spans="1:12">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
@@ -5070,188 +4284,188 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="75.75" r="17" spans="1:10">
+    <row r="17" ht="75.75" spans="1:12">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="60.75" spans="1:12">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="60.75" r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="E18" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="60.75" spans="1:12">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="60.75" r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="E19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="60.75" spans="1:12">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="60.75" r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="E20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="30.75" spans="1:12">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="30.75" r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
@@ -5260,24 +4474,24 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="45.75" r="22" spans="1:10">
+    <row r="22" ht="45.75" spans="1:12">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>14</v>
@@ -5286,36 +4500,36 @@
         <v>32</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="45.75" spans="1:12">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="D23" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="45.75" r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>14</v>
@@ -5324,36 +4538,36 @@
         <v>30</v>
       </c>
       <c r="G23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="45.75" spans="1:12">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="D24" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="45.75" r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>14</v>
@@ -5362,48 +4576,48 @@
         <v>35</v>
       </c>
       <c r="G24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="60.75" spans="1:12">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="D25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="60.75" r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="E25" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>16</v>
@@ -5412,71 +4626,71 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="75.75" r="26" spans="1:10">
+    <row r="26" ht="75.75" spans="1:12">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="60.75" spans="1:12">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="60.75" r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
@@ -5485,36 +4699,36 @@
         <v>16</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="28" spans="1:10">
+    <row r="28" ht="60.75" spans="1:12">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -5523,36 +4737,36 @@
         <v>16</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60.75" r="29" spans="1:10">
+    <row r="29" ht="60.75" spans="1:12">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
@@ -5561,27 +4775,27 @@
         <v>16</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="51" r="30" spans="1:10">
+    <row r="30" ht="51" customHeight="1" spans="1:12">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>14</v>
@@ -5599,24 +4813,24 @@
         <v>16</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K30" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="60" r="31" spans="1:10">
+    <row r="31" ht="60" spans="1:12">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -5625,13 +4839,13 @@
         <v>35</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>16</v>
@@ -5640,22 +4854,22 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="L31" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -5663,9 +4877,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="37.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="57.7142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" width="37.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5697,15 +4911,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>13</v>
@@ -5720,24 +4934,24 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:7">
+    <row r="3" ht="30" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>19</v>
@@ -5749,21 +4963,21 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="4" spans="1:7">
+    <row r="4" ht="30.75" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>37</v>
@@ -5775,27 +4989,27 @@
         <v>16</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="5" spans="1:7">
+    <row r="5" ht="30.75" spans="1:9">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>14</v>
@@ -5804,16 +5018,16 @@
         <v>16</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="6" spans="1:7">
+    <row r="6" ht="30.75" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5821,10 +5035,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>14</v>
@@ -5833,24 +5047,24 @@
         <v>16</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="7" spans="1:7">
+    <row r="7" ht="30.75" spans="1:9">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -5862,16 +5076,16 @@
         <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="8" spans="1:7">
+    <row r="8" ht="30.75" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5879,7 +5093,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -5891,16 +5105,16 @@
         <v>16</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="9" spans="1:7">
+    <row r="9" ht="33" customHeight="1" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5908,7 +5122,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -5920,24 +5134,24 @@
         <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="10" spans="1:7">
+    <row r="10" ht="30.75" spans="1:9">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>13</v>
@@ -5949,82 +5163,82 @@
         <v>16</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="11" spans="1:7">
+    <row r="11" ht="30.75" spans="1:9">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="12" spans="1:7">
+    <row r="12" ht="30.75" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="13" spans="1:7">
+    <row r="13" ht="30.75" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>13</v>
@@ -6039,21 +5253,21 @@
         <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="14" spans="1:7">
+    <row r="14" ht="30.75" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>13</v>
@@ -6065,24 +5279,24 @@
         <v>16</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="15" spans="1:7">
+    <row r="15" ht="30.75" spans="1:9">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>13</v>
@@ -6097,22 +5311,22 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
@@ -6120,11 +5334,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="41.5714285714286" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="59.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.7142857142857" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.7142857142857" collapsed="true"/>
+    <col min="2" max="2" width="41.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6138,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -6159,21 +5373,21 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:8">
+    <row r="2" ht="15.75" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>14</v>
@@ -6185,27 +5399,27 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="51" r="3" spans="1:8">
+    <row r="3" ht="51" customHeight="1" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>19</v>
@@ -6217,27 +5431,27 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:8">
+    <row r="4" ht="15.75" spans="1:10">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>14</v>
@@ -6246,30 +5460,30 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="32" r="5" spans="1:8">
+    <row r="5" ht="32" customHeight="1" spans="1:10">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>14</v>
@@ -6278,30 +5492,30 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="6" spans="1:8">
+    <row r="6" ht="30.75" spans="1:10">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>14</v>
@@ -6310,30 +5524,30 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="7" spans="1:8">
+    <row r="7" ht="24" customHeight="1" spans="1:10">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>14</v>
@@ -6342,30 +5556,30 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="8" spans="1:8">
+    <row r="8" ht="24" customHeight="1" spans="1:10">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>19</v>
@@ -6374,30 +5588,30 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:8">
+    <row r="9" ht="15.75" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>14</v>
@@ -6406,31 +5620,31 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>139</v>
-      </c>
       <c r="F10" s="37" t="s">
         <v>14</v>
       </c>
@@ -6438,27 +5652,27 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="11" spans="1:8">
+    <row r="11" ht="30.75" spans="1:10">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -6473,13 +5687,13 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="12" spans="1:8">
+    <row r="12" ht="21" customHeight="1" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6487,13 +5701,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>14</v>
@@ -6505,24 +5719,24 @@
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:8">
+    <row r="13" ht="15.75" spans="1:10">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -6534,16 +5748,16 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="14" spans="1:8">
+    <row r="14" ht="18" customHeight="1" spans="1:10">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6551,10 +5765,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -6569,13 +5783,13 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="70" r="15" spans="1:9">
+    <row r="15" ht="70" customHeight="1" spans="1:10">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6583,10 +5797,10 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -6601,62 +5815,62 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="16" spans="1:8">
+    <row r="16" ht="16" customHeight="1" spans="1:10">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="30.75" r="17" spans="1:8">
+    <row r="17" ht="30.75" spans="1:10">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -6665,30 +5879,30 @@
         <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="22" r="18" spans="1:8">
+    <row r="18" ht="22" customHeight="1" spans="1:10">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -6697,27 +5911,27 @@
         <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:8">
+    <row r="19" ht="15.75" spans="1:10">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -6729,27 +5943,27 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="20" spans="1:8">
+    <row r="20" ht="24" customHeight="1" spans="1:10">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -6761,27 +5975,27 @@
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="15.75" r="21" spans="1:8">
+    <row r="21" ht="15.75" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -6793,14 +6007,14 @@
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/VootKidsSprint2.xlsx
+++ b/VootKidsSprint2.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11850" activeTab="2"/>
+    <workbookView activeTab="1" windowHeight="11850" windowWidth="19200"/>
   </bookViews>
   <sheets>
-    <sheet name="Watch_history" sheetId="1" r:id="rId1"/>
-    <sheet name="Master" sheetId="2" r:id="rId2"/>
-    <sheet name="Channel" sheetId="4" r:id="rId3"/>
-    <sheet name="Watch" sheetId="5" r:id="rId4"/>
-    <sheet name="kidscharacters" sheetId="6" r:id="rId5"/>
-    <sheet name="gettraymedialist" sheetId="7" r:id="rId6"/>
+    <sheet name="Watch_history" r:id="rId1" sheetId="1"/>
+    <sheet name="Master" r:id="rId2" sheetId="2"/>
+    <sheet name="Channel" r:id="rId3" sheetId="4"/>
+    <sheet name="Watch" r:id="rId4" sheetId="5"/>
+    <sheet name="kidscharacters" r:id="rId5" sheetId="6"/>
+    <sheet name="gettraymedialist" r:id="rId6" sheetId="7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="1">
   <si>
     <t>TestType</t>
   </si>
@@ -225,46 +225,221 @@
     <t>channelName,channelId,sbu,imgURL</t>
   </si>
   <si>
+    <t>{
+    "assets": {
+        "title": "Channels",
+        "totalItems": 15,
+        "items": [
+            {
+                "channelName": "Nickelodeon 1",
+                "channelId": 3,
+                "sbu": "NICK1",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Entertainment one",
+                "channelId": 12,
+                "sbu": "ETO",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Green Gold",
+                "channelId": 13,
+                "sbu": "GRG",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Hit Entertainment",
+                "channelId": 16,
+                "sbu": "HITENT",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Hi5",
+                "channelId": 15,
+                "sbu": "HI5",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Millimages",
+                "channelId": 18,
+                "sbu": "MIL",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Karadi Tales",
+                "channelId": 17,
+                "sbu": "KAR",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            }
+        ]
+    },
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
     <t>When all valid parameters with different offset and limit values</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>{
+    "assets": {
+        "title": "Channels",
+        "totalItems": 15,
+        "items": [
+            {
+                "channelName": "Entertainment one",
+                "channelId": 12,
+                "sbu": "ETO",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Green Gold",
+                "channelId": 13,
+                "sbu": "GRG",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Hit Entertainment",
+                "channelId": 16,
+                "sbu": "HITENT",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Hi5",
+                "channelId": 15,
+                "sbu": "HI5",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Millimages",
+                "channelId": 18,
+                "sbu": "MIL",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Karadi Tales",
+                "channelId": 17,
+                "sbu": "KAR",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Yoboho",
+                "channelId": 28,
+                "sbu": "YOB",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849755_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            },
+            {
+                "channelName": "Strika Entertainment",
+                "channelId": 21,
+                "sbu": "STR",
+                "imgURL": "https://voot-kids-cms.s3.amazonaws.com/voot-kids/include/upload/voot-kids-images/channel-logos/channel_1524849779_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"
+            }
+        ]
+    },
+    "status": {
+        "code": 200,
+        "message": "OK"
+    }
+}</t>
+  </si>
+  <si>
     <t>When invalid limit is passed</t>
   </si>
   <si>
     <t>The limit must be at least 1.</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit must be at least 1."
+    }
+}</t>
+  </si>
+  <si>
     <t>When alphanumeric chaaracters are passed in limit</t>
   </si>
   <si>
     <t>limit parameter must be numeric</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "limit parameter must be numeric"
+    }
+}</t>
+  </si>
+  <si>
     <t>When empty limit is passed</t>
   </si>
   <si>
     <t>The limit field is required.</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The limit field is required."
+    }
+}</t>
+  </si>
+  <si>
+    <t>{"assets":{"title":"Channels","totalItems":15,"items":[{"channelName":"Nickelodeon 1","channelId":3,"sbu":"NICK1","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849940_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Entertainment one","channelId":12,"sbu":"ETO","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837915_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Green Gold","channelId":13,"sbu":"GRG","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hit Entertainment","channelId":16,"sbu":"HITENT","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849601_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hi5","channelId":15,"sbu":"HI5","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849625_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Millimages","channelId":18,"sbu":"MIL","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849648_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Karadi Tales","channelId":17,"sbu":"KAR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849720_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Yoboho","channelId":28,"sbu":"YOB","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849755_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Strika Entertainment","channelId":21,"sbu":"STR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849779_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Wide Angle Media","channelId":27,"sbu":"WAM","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849803_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"TURNER","channelId":24,"sbu":"TUR","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849830_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Hasbro","channelId":14,"sbu":"HBRP","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1523978839_2.jpg"},{"channelName":"Toonz Animation","channelId":23,"sbu":"TOON","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524849990_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"},{"channelName":"Dandelooo","channelId":10,"sbu":"DAN","imgURL":"http:\/\/voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1523881413_2.jpg"},{"channelName":"Dream Theatre","channelId":11,"sbu":"DTH","imgURL":"https://voot-kids-cms.s3.amazonaws.com\/voot-kids\/include\/upload\/voot-kids-images\/channel-logos\/channel_1524850238_channel_1524837985_channel_1524047975_channel_1523885606_2.jpg"}]},"status":{"code":200,"message":"OK"}}</t>
+  </si>
+  <si>
     <t>When invalid offSet is passed</t>
   </si>
   <si>
     <t>The offSet must be at least 0.</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "The offSet must be at least 0."
+    }
+}</t>
+  </si>
+  <si>
     <t>When alphanumeric characters are passed in offSet</t>
   </si>
   <si>
     <t>offSet parameter must be numeric</t>
   </si>
   <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet parameter must be numeric"
+    }
+}</t>
+  </si>
+  <si>
     <t>When Special Characters are passed in offSet</t>
   </si>
   <si>
     <t>When empty offSet is passed</t>
+  </si>
+  <si>
+    <t>{
+    "assets": null,
+    "status": {
+        "code": 400,
+        "message": "offSet parameter is required"
+    }
+}</t>
   </si>
   <si>
     <t>When null value is passed in offSet</t>
@@ -607,15 +782,6 @@
     <t>when invalid limit is passed</t>
   </si>
   <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The limit must be at least 1."
-    }
-}</t>
-  </si>
-  <si>
     <t>when Alpha numeric is passed</t>
   </si>
   <si>
@@ -634,15 +800,6 @@
     <t>@</t>
   </si>
   <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The limit field is required."
-    }
-}</t>
-  </si>
-  <si>
     <t>When offset is Notpassed</t>
   </si>
   <si>
@@ -666,15 +823,6 @@
     "status": {
         "code": 400,
         "message": "offSet value must be numeric"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "offSet parameter is required"
     }
 }</t>
   </si>
@@ -1139,33 +1287,6 @@
     <t>a1</t>
   </si>
   <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "limit parameter must be numeric"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "The offSet must be at least 0."
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "assets": null,
-    "status": {
-        "code": 400,
-        "message": "offSet parameter must be numeric"
-    }
-}</t>
-  </si>
-  <si>
     <t>moduleId</t>
   </si>
   <si>
@@ -1370,6 +1491,9 @@
     }
 }</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -1377,9 +1501,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2045,291 +2169,291 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="21" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="16" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="16" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="20" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="39">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="10"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2343,10 +2467,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2510,21 +2634,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2541,7 +2665,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2594,9 +2718,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -2604,13 +2728,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="67.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="67.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.1428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.85714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2905,7 +3029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row customFormat="1" r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +3055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row customFormat="1" r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +3081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row customFormat="1" r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2983,7 +3107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row customFormat="1" r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -3009,7 +3133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row customFormat="1" r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -3035,7 +3159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row customFormat="1" r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3061,7 +3185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:8">
+    <row customFormat="1" r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -3087,7 +3211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
+    <row customFormat="1" r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3115,42 +3239,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C16" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C17" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C18" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
-    <hyperlink ref="C19" r:id="rId1" display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C2" tooltip="http://apiuat.vootkids.com/app/ks/v1/watchhistory.json"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C4"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C5"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C6"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C7"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C8"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C9"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C10"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C11"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C12"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C13"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C14"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C15"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C3"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C16"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C17"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C18"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/ks/v1/watchHistory.json" r:id="rId1" ref="C19"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="26.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3170,119 +3294,77 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="32">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="32">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="58.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="6" max="6" width="15.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="9" max="9" width="13.8571428571429" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="58.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3317,7 +3399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3339,19 +3421,25 @@
       <c r="G2" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>19</v>
@@ -3362,13 +3450,19 @@
       <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>65</v>
@@ -3383,15 +3477,21 @@
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>65</v>
@@ -3406,10 +3506,16 @@
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3429,15 +3535,21 @@
         <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>65</v>
@@ -3452,10 +3564,16 @@
         <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -3475,10 +3593,16 @@
         <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -3500,13 +3624,19 @@
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>65</v>
@@ -3521,15 +3651,21 @@
         <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>65</v>
@@ -3544,15 +3680,21 @@
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>65</v>
@@ -3567,15 +3709,21 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>65</v>
@@ -3592,13 +3740,19 @@
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>65</v>
@@ -3613,15 +3767,21 @@
         <v>16</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>65</v>
@@ -3638,33 +3798,39 @@
       <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" tooltip="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C6" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C7" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C8" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C9" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C10" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C11" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C12" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C13" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C14" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
-    <hyperlink ref="C15" r:id="rId1" display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C2" tooltip="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C3"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C4"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C6"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C5"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C7"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C8"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C9"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C10"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C11"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C12"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C13"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C14"/>
+    <hyperlink display="http://apiuat.vootkids.com/app/curated/v1/tvChannelList.json" r:id="rId1" ref="C15"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="D26" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
@@ -3672,14 +3838,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85714285714286" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="42.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="45.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.7142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3702,10 +3868,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -3720,30 +3886,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="34" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="34" r="2" spans="1:12">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
@@ -3752,13 +3918,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="38" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="38" r="3" spans="1:12">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -3766,22 +3932,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
@@ -3790,21 +3956,21 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" ht="55" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="55" r="4" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>37</v>
@@ -3813,36 +3979,36 @@
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="58" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="58" r="5" spans="1:12">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
@@ -3851,13 +4017,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
@@ -3866,36 +4032,36 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="60" spans="1:12">
+    <row ht="60" r="6" spans="1:12">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>16</v>
@@ -3904,21 +4070,21 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="60" spans="1:12">
+    <row ht="60" r="7" spans="1:12">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
@@ -3927,28 +4093,28 @@
         <v>14</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="60" spans="1:12">
+    <row ht="60" r="8" spans="1:12">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3956,7 +4122,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -3965,13 +4131,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
@@ -3980,36 +4146,36 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="60" r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" ht="60" spans="1:12">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
@@ -4018,21 +4184,21 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="60.75" spans="1:12">
+    <row ht="60.75" r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -4041,13 +4207,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>16</v>
@@ -4056,74 +4222,74 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="60.75" spans="1:12">
+    <row ht="60.75" r="11" spans="1:12">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="60.75" spans="1:12">
+    <row ht="60.75" r="12" spans="1:12">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>16</v>
@@ -4132,36 +4298,36 @@
         <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="60.75" spans="1:12">
+    <row ht="60.75" r="13" spans="1:12">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="H13" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>16</v>
@@ -4170,36 +4336,36 @@
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="60.75" spans="1:12">
+    <row ht="60.75" r="14" spans="1:12">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>16</v>
@@ -4208,36 +4374,36 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="60.75" spans="1:12">
+    <row ht="60.75" r="15" spans="1:12">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>16</v>
@@ -4246,36 +4412,36 @@
         <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="60.75" spans="1:12">
+    <row ht="60.75" r="16" spans="1:12">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
@@ -4284,188 +4450,188 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="75.75" spans="1:12">
+    <row ht="75.75" r="17" spans="1:12">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="60.75" spans="1:12">
+    <row ht="60.75" r="18" spans="1:12">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" ht="60.75" spans="1:12">
+    <row ht="60.75" r="19" spans="1:12">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" ht="60.75" spans="1:12">
+    <row ht="60.75" r="20" spans="1:12">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="30.75" spans="1:12">
+    <row ht="30.75" r="21" spans="1:12">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
@@ -4474,24 +4640,24 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" ht="45.75" spans="1:12">
+    <row ht="45.75" r="22" spans="1:12">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>14</v>
@@ -4500,36 +4666,36 @@
         <v>32</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" ht="45.75" spans="1:12">
+    <row ht="45.75" r="23" spans="1:12">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>14</v>
@@ -4538,36 +4704,36 @@
         <v>30</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="45.75" spans="1:12">
+    <row ht="45.75" r="24" spans="1:12">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>14</v>
@@ -4576,48 +4742,48 @@
         <v>35</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" ht="60.75" spans="1:12">
+    <row ht="60.75" r="25" spans="1:12">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>16</v>
@@ -4626,71 +4792,71 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" ht="75.75" spans="1:12">
+    <row ht="75.75" r="26" spans="1:12">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="60.75" spans="1:12">
+    <row ht="60.75" r="27" spans="1:12">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
@@ -4699,36 +4865,36 @@
         <v>16</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="60.75" spans="1:12">
+    <row ht="60.75" r="28" spans="1:12">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -4737,36 +4903,36 @@
         <v>16</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="60.75" spans="1:12">
+    <row ht="60.75" r="29" spans="1:12">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
@@ -4775,27 +4941,27 @@
         <v>16</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="51" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="51" r="30" spans="1:12">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>14</v>
@@ -4813,24 +4979,24 @@
         <v>16</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="60" spans="1:12">
+    <row ht="60" r="31" spans="1:12">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -4839,13 +5005,13 @@
         <v>35</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>16</v>
@@ -4854,22 +5020,22 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -4877,9 +5043,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="37.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="57.7142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4916,10 +5082,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>13</v>
@@ -4934,24 +5100,24 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:9">
+    <row ht="30" r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>19</v>
@@ -4963,21 +5129,21 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" ht="30.75" spans="1:9">
+    <row ht="30.75" r="4" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>37</v>
@@ -4989,27 +5155,27 @@
         <v>16</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="30.75" spans="1:9">
+    <row ht="30.75" r="5" spans="1:9">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>14</v>
@@ -5018,16 +5184,16 @@
         <v>16</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="30.75" spans="1:9">
+    <row ht="30.75" r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5035,10 +5201,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>14</v>
@@ -5047,24 +5213,24 @@
         <v>16</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="30.75" spans="1:9">
+    <row ht="30.75" r="7" spans="1:9">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -5076,16 +5242,16 @@
         <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="30.75" spans="1:9">
+    <row ht="30.75" r="8" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5093,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -5105,16 +5271,16 @@
         <v>16</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="33" customHeight="1" spans="1:9">
+    <row customHeight="1" ht="33" r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5122,7 +5288,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -5134,24 +5300,24 @@
         <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="30.75" spans="1:9">
+    <row ht="30.75" r="10" spans="1:9">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>13</v>
@@ -5163,82 +5329,82 @@
         <v>16</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="30.75" r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" ht="30.75" spans="1:9">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="30.75" spans="1:9">
+    <row ht="30.75" r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="30.75" spans="1:9">
+    <row ht="30.75" r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>13</v>
@@ -5253,21 +5419,21 @@
         <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="30.75" spans="1:9">
+    <row ht="30.75" r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>13</v>
@@ -5279,24 +5445,24 @@
         <v>16</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="30.75" spans="1:9">
+    <row ht="30.75" r="15" spans="1:9">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>13</v>
@@ -5311,22 +5477,22 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
@@ -5334,11 +5500,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="59.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="41.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="59.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5352,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -5373,21 +5539,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
+    <row ht="15.75" r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>14</v>
@@ -5399,27 +5565,27 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="51" r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>19</v>
@@ -5431,27 +5597,27 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:10">
+    <row ht="15.75" r="4" spans="1:10">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>148</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>14</v>
@@ -5460,30 +5626,30 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="32" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="32" r="5" spans="1:10">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>14</v>
@@ -5492,30 +5658,30 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="30.75" spans="1:10">
+    <row ht="30.75" r="6" spans="1:10">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>14</v>
@@ -5524,30 +5690,30 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="24" r="7" spans="1:10">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>14</v>
@@ -5556,30 +5722,30 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="24" r="8" spans="1:10">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>19</v>
@@ -5588,30 +5754,30 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:10">
+    <row ht="15.75" r="9" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>14</v>
@@ -5620,30 +5786,30 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="24" r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>14</v>
@@ -5652,27 +5818,27 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="30.75" spans="1:10">
+    <row ht="30.75" r="11" spans="1:10">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -5687,13 +5853,13 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="21" r="12" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5701,13 +5867,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>14</v>
@@ -5719,24 +5885,24 @@
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:10">
+    <row ht="15.75" r="13" spans="1:10">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -5748,16 +5914,16 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="18" r="14" spans="1:10">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5765,10 +5931,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -5783,13 +5949,13 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="70" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="70" r="15" spans="1:10">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5797,10 +5963,10 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -5815,62 +5981,62 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="16" r="16" spans="1:10">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="30.75" r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
         <v>147</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="30.75" spans="1:10">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" t="s">
-        <v>141</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -5879,30 +6045,30 @@
         <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="22" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="22" r="18" spans="1:10">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -5911,27 +6077,27 @@
         <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:10">
+    <row ht="15.75" r="19" spans="1:10">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -5943,27 +6109,27 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="24" r="20" spans="1:10">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -5975,27 +6141,27 @@
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:10">
+    <row ht="15.75" r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -6007,14 +6173,14 @@
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>